--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_11_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_11_40.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2412074.442150727</v>
+        <v>2404353.269785404</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2996030.584995028</v>
+        <v>2997469.84719921</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11126053.19291775</v>
+        <v>11111062.89448506</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5530617.693525101</v>
+        <v>5532763.491494595</v>
       </c>
     </row>
     <row r="11">
@@ -1376,22 +1376,22 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="F11" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="I11" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1.958590140067713</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>22.34270410921874</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1458,16 +1458,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,16 +1494,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1570,22 +1570,22 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="R13" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="U13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1613,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>39.58387696184059</v>
@@ -1622,37 +1622,37 @@
         <v>39.58387696184059</v>
       </c>
       <c r="H14" t="n">
+        <v>39.58387696184059</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
         <v>34.86547882798917</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1692,19 +1692,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>34.86547882798917</v>
+      </c>
+      <c r="G15" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="F15" t="n">
+      <c r="H15" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
-        <v>34.86547882798917</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1737,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1786,37 +1786,37 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
       <c r="R16" t="n">
-        <v>34.86547882798917</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S16" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="T16" t="n">
-        <v>39.58387696184059</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1847,16 +1847,16 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>79.13461628504521</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>79.13461628504521</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>79.13461628504521</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>69.70177002386779</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1889,16 +1889,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>79.99795206734417</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>79.99795206734417</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>79.99795206734417</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>70.46219618091678</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1926,22 +1926,22 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>79.13461628504521</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>79.13461628504521</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>69.70177002386779</v>
+        <v>79.99795206734417</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>77.92556126526787</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>55.08674988018648</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>65.84795118141454</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1977,13 +1977,13 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>31.59783798873616</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>79.13461628504521</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>79.99795206734417</v>
       </c>
       <c r="C19" t="n">
-        <v>17.27986626417438</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>79.99795206734417</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>79.99795206734417</v>
       </c>
       <c r="F19" t="n">
-        <v>79.13461628504521</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,10 +2020,10 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>79.13461628504521</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>59.04929714544418</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>52.42190375969339</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>79.13461628504521</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>11.41289903547257</v>
       </c>
     </row>
     <row r="20">
@@ -2084,13 +2084,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>156.0370391291862</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>160.6251869900322</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>174.7009669679182</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>202.9507703116234</v>
       </c>
       <c r="V20" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2157,25 +2157,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>118.7080445328818</v>
+        <v>118.1383010536542</v>
       </c>
       <c r="C21" t="n">
-        <v>124.8833598713302</v>
+        <v>124.3136163921026</v>
       </c>
       <c r="D21" t="n">
-        <v>99.61992644765326</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>97.24407327639838</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>64.41030511951095</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2205,28 +2205,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>51.76295155643002</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>87.62953833588594</v>
+        <v>151.7698460986085</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>184.9754480324398</v>
+        <v>128.7556234298261</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>203.3001005647065</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>157.8575566603189</v>
+        <v>157.2878131810913</v>
       </c>
     </row>
     <row r="22">
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>100.2205904219992</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>107.0555923310452</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2296,16 +2296,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>41.28983716652628</v>
+        <v>15.81834766870696</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>177.8845162720517</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>170.7595142351093</v>
+        <v>170.1897707558817</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>9.334615331818716</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2372,10 +2372,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>202.9507703116234</v>
       </c>
       <c r="V23" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
         <v>241.0142888776591</v>
@@ -2384,7 +2384,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,16 +2394,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>118.1383010536542</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>124.3136163921026</v>
       </c>
       <c r="D24" t="n">
-        <v>99.61992644765326</v>
+        <v>99.05018296842564</v>
       </c>
       <c r="E24" t="n">
-        <v>109.8199413384154</v>
+        <v>109.2501978591878</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>41.57149373442957</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,28 +2442,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>51.76295155643002</v>
       </c>
       <c r="S24" t="n">
-        <v>123.8580319868523</v>
+        <v>118.1470866582632</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>178.1162429639893</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>184.9754480324398</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>39.50961111232064</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>157.3781026072644</v>
       </c>
       <c r="Y24" t="n">
-        <v>157.8575566603189</v>
+        <v>157.2878131810913</v>
       </c>
     </row>
     <row r="25">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>131.4370975857242</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2482,13 +2482,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>1.412604291158888</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>97.59590890594575</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>120.1658402414733</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2533,16 +2533,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>23.71908785153104</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>238.1281157403779</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>170.7595142351093</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,14 +2552,14 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
@@ -2570,10 +2570,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I26" t="n">
-        <v>160.5178827775634</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,13 +2600,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>98.8530161154559</v>
       </c>
       <c r="S26" t="n">
-        <v>119.6439489722488</v>
+        <v>113.4323695279861</v>
       </c>
       <c r="T26" t="n">
-        <v>173.1378427712889</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2618,10 +2618,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,19 +2631,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>116.5751768570248</v>
+        <v>115.5170818241736</v>
       </c>
       <c r="C27" t="n">
-        <v>122.7504921954732</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>31.15492726659187</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>94.0531105676901</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2682,25 +2682,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>120.667069278144</v>
       </c>
       <c r="T27" t="n">
-        <v>150.2067219019791</v>
+        <v>149.1486268691278</v>
       </c>
       <c r="U27" t="n">
-        <v>175.9833752881323</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>182.8425803565828</v>
+        <v>181.7844853237315</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>155.814978410635</v>
+        <v>119.4912844619417</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>154.6665939516106</v>
       </c>
     </row>
     <row r="28">
@@ -2716,19 +2716,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>92.50443967890024</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>96.47595585372667</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>95.46304123008875</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>118.0329725656163</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>111.2110706817458</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2773,10 +2773,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>122.7940187334282</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>174.6935535633434</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,22 +2789,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>145.0130140199762</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>240.4402078430553</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>218.8756206159195</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>94.7772358086177</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2849,16 +2849,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>213.5094246925073</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>234.9981349397854</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>57.44033732621021</v>
+        <v>57.44033732621018</v>
       </c>
       <c r="T30" t="n">
         <v>85.92189491719397</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>11.3053034371935</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>109.7737642593446</v>
       </c>
       <c r="T31" t="n">
-        <v>113.7027556506539</v>
+        <v>20.66623951338013</v>
       </c>
       <c r="U31" t="n">
         <v>172.0761955788632</v>
@@ -3016,7 +3016,7 @@
         <v>111.4668216114095</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>104.3418195744672</v>
       </c>
     </row>
     <row r="32">
@@ -3035,64 +3035,64 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>131.8346503901834</v>
+      </c>
+      <c r="G32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F32" t="n">
+      <c r="H32" t="n">
+        <v>225.2319683381395</v>
+      </c>
+      <c r="I32" t="n">
+        <v>96.23305579277826</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>218.3015395813158</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>234.9981349397854</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3105,22 +3105,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>52.2903498722397</v>
+        <v>52.29034987223969</v>
       </c>
       <c r="C33" t="n">
-        <v>58.4656652106881</v>
+        <v>58.46566521068809</v>
       </c>
       <c r="D33" t="n">
-        <v>33.20223178701112</v>
+        <v>33.2022317870111</v>
       </c>
       <c r="E33" t="n">
-        <v>43.40224667777331</v>
+        <v>43.40224667777329</v>
       </c>
       <c r="F33" t="n">
-        <v>30.82637861575624</v>
+        <v>30.82637861575623</v>
       </c>
       <c r="G33" t="n">
-        <v>23.100683385583</v>
+        <v>23.10068338558298</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3156,25 +3156,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>57.44033732621021</v>
+        <v>57.44033732621017</v>
       </c>
       <c r="T33" t="n">
-        <v>85.92189491719397</v>
+        <v>85.92189491719395</v>
       </c>
       <c r="U33" t="n">
         <v>111.6985483033472</v>
       </c>
       <c r="V33" t="n">
-        <v>118.5577533717976</v>
+        <v>118.557753371798</v>
       </c>
       <c r="W33" t="n">
         <v>137.452149383292</v>
       </c>
       <c r="X33" t="n">
-        <v>91.53015142584984</v>
+        <v>91.53015142584982</v>
       </c>
       <c r="Y33" t="n">
-        <v>91.43986199967672</v>
+        <v>91.43986199967671</v>
       </c>
     </row>
     <row r="34">
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>65.58914640430966</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>53.0039873210002</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>53.74814558083112</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>6.514988478451489</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>63.05055759954185</v>
+        <v>63.05055759954183</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>109.7737642593446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>172.0761955788632</v>
+        <v>129.691877492702</v>
       </c>
       <c r="V34" t="n">
         <v>137.8948095462003</v>
@@ -3250,10 +3250,10 @@
         <v>172.2801645589633</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>111.4668216114095</v>
       </c>
       <c r="Y34" t="n">
-        <v>104.3418195744672</v>
+        <v>104.3418195744671</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>36.79627263896226</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>177.4199068154529</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>201.4304119158185</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>151.1878187551933</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3329,10 +3329,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>201.4304119158185</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>201.4304119158185</v>
+        <v>213.4242636173429</v>
       </c>
     </row>
     <row r="36">
@@ -3345,22 +3345,22 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>72.55066483567261</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>47.28723141199562</v>
       </c>
       <c r="E36" t="n">
-        <v>57.48724630275781</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>44.91137824074075</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>2.870305358530328</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>12.07761008385333</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>71.52533695119469</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>100.0068945421785</v>
@@ -3402,13 +3402,13 @@
         <v>125.7835479283317</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>132.6427529967821</v>
       </c>
       <c r="W36" t="n">
         <v>151.5371490082765</v>
       </c>
       <c r="X36" t="n">
-        <v>97.29544136983516</v>
+        <v>105.6151510508343</v>
       </c>
       <c r="Y36" t="n">
         <v>105.5248616246612</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>79.67414602929416</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3436,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>54.35108544474667</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>62.06933835479644</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>77.13555722452635</v>
+        <v>53.82845572353304</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>127.7877552756384</v>
       </c>
       <c r="U37" t="n">
-        <v>186.1611952038477</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>151.9798091711849</v>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>118.4268191994517</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
         <v>201.4304119158185</v>
       </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>177.4199068154529</v>
       </c>
       <c r="G38" t="n">
         <v>201.4304119158185</v>
       </c>
       <c r="H38" t="n">
-        <v>177.4199068154529</v>
+        <v>201.4304119158185</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>201.4304119158185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>66.37534949722421</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>72.55066483567261</v>
@@ -3588,16 +3588,16 @@
         <v>47.28723141199562</v>
       </c>
       <c r="E39" t="n">
-        <v>57.48724630275781</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>44.91137824074075</v>
+        <v>17.28314399808658</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>37.1856830105675</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>12.07761008385333</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>71.52533695119469</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>100.0068945421785</v>
@@ -3639,10 +3639,10 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>132.6427529967821</v>
       </c>
       <c r="W39" t="n">
-        <v>110.4270281056484</v>
+        <v>151.5371490082765</v>
       </c>
       <c r="X39" t="n">
         <v>105.6151510508343</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>8.154749496533286</v>
+        <v>67.83314520581563</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>77.13555722452635</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>127.7877552756384</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>186.1611952038477</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>151.9798091711849</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>186.3651641839479</v>
       </c>
       <c r="X40" t="n">
         <v>125.551821236394</v>
       </c>
       <c r="Y40" t="n">
-        <v>118.4268191994517</v>
+        <v>109.1966525611811</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>161.8796725926138</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>161.0163368103148</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>141.8231894625253</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>161.0163368103148</v>
       </c>
       <c r="G41" t="n">
-        <v>161.8796725926138</v>
+        <v>161.0163368103148</v>
       </c>
       <c r="H41" t="n">
-        <v>161.8796725926138</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>142.5836156195743</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3825,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>69.61081319315961</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.362365589173749</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,25 +3864,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>12.1235668904018</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>83.64890384159649</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>112.1304614325803</v>
+        <v>112.6188129862039</v>
       </c>
       <c r="U42" t="n">
-        <v>137.9071148187335</v>
+        <v>138.3954663723571</v>
       </c>
       <c r="V42" t="n">
-        <v>144.766319887184</v>
+        <v>145.2546714408076</v>
       </c>
       <c r="W42" t="n">
-        <v>66.67308774458641</v>
+        <v>161.0163368103148</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>67.58691228378626</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3898,7 +3898,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>79.70090539001016</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3907,7 +3907,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>57.87513231431357</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3919,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>5.324912854431446</v>
+        <v>5.813264408055105</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3949,19 +3949,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>139.9113221660402</v>
+        <v>140.3996737196638</v>
       </c>
       <c r="U43" t="n">
-        <v>161.8796725926138</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>21.55166506492062</v>
+        <v>161.0163368103148</v>
       </c>
       <c r="W43" t="n">
-        <v>161.8796725926138</v>
+        <v>41.90314757069288</v>
       </c>
       <c r="X43" t="n">
-        <v>137.6753881267958</v>
+        <v>138.1637396804195</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>158.3355078473624</v>
+        <v>87.79171305215472</v>
       </c>
       <c r="C11" t="n">
-        <v>158.3355078473624</v>
+        <v>87.79171305215472</v>
       </c>
       <c r="D11" t="n">
-        <v>158.3355078473624</v>
+        <v>87.79171305215472</v>
       </c>
       <c r="E11" t="n">
-        <v>158.3355078473624</v>
+        <v>59.923000667997</v>
       </c>
       <c r="F11" t="n">
-        <v>123.1178524655551</v>
+        <v>59.923000667997</v>
       </c>
       <c r="G11" t="n">
-        <v>83.13413836268582</v>
+        <v>59.923000667997</v>
       </c>
       <c r="H11" t="n">
-        <v>43.15042425981653</v>
+        <v>32.05428828383928</v>
       </c>
       <c r="I11" t="n">
-        <v>3.166710156947247</v>
+        <v>4.185575899681568</v>
       </c>
       <c r="J11" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K11" t="n">
-        <v>40.77139327069581</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L11" t="n">
-        <v>79.95943146291799</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M11" t="n">
-        <v>119.1474696551402</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N11" t="n">
-        <v>119.1474696551402</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O11" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P11" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q11" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R11" t="n">
-        <v>158.3355078473624</v>
+        <v>87.79171305215472</v>
       </c>
       <c r="S11" t="n">
-        <v>158.3355078473624</v>
+        <v>87.79171305215472</v>
       </c>
       <c r="T11" t="n">
-        <v>158.3355078473624</v>
+        <v>87.79171305215472</v>
       </c>
       <c r="U11" t="n">
-        <v>158.3355078473624</v>
+        <v>87.79171305215472</v>
       </c>
       <c r="V11" t="n">
-        <v>158.3355078473624</v>
+        <v>87.79171305215472</v>
       </c>
       <c r="W11" t="n">
-        <v>158.3355078473624</v>
+        <v>87.79171305215472</v>
       </c>
       <c r="X11" t="n">
-        <v>158.3355078473624</v>
+        <v>87.79171305215472</v>
       </c>
       <c r="Y11" t="n">
-        <v>158.3355078473624</v>
+        <v>87.79171305215472</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>158.3355078473624</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C12" t="n">
-        <v>158.3355078473624</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D12" t="n">
-        <v>158.3355078473624</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E12" t="n">
-        <v>158.3355078473624</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F12" t="n">
-        <v>123.1178524655551</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G12" t="n">
-        <v>83.13413836268582</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H12" t="n">
-        <v>43.15042425981653</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I12" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J12" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K12" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L12" t="n">
-        <v>40.77139327069581</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M12" t="n">
-        <v>79.95943146291799</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="N12" t="n">
-        <v>79.95943146291799</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O12" t="n">
-        <v>119.1474696551402</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P12" t="n">
-        <v>158.3355078473624</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R12" t="n">
-        <v>158.3355078473624</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="S12" t="n">
-        <v>158.3355078473624</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="T12" t="n">
-        <v>158.3355078473624</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="U12" t="n">
-        <v>158.3355078473624</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="V12" t="n">
-        <v>158.3355078473624</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="W12" t="n">
-        <v>158.3355078473624</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X12" t="n">
-        <v>158.3355078473624</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y12" t="n">
-        <v>158.3355078473624</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C13" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D13" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E13" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F13" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G13" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H13" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I13" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J13" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K13" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L13" t="n">
-        <v>38.53279671097546</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M13" t="n">
-        <v>77.72083490319764</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N13" t="n">
-        <v>116.9088730954198</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O13" t="n">
-        <v>151.1389419527185</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P13" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q13" t="n">
-        <v>118.3517937444931</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="R13" t="n">
-        <v>78.36807964162378</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="S13" t="n">
-        <v>78.36807964162378</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="T13" t="n">
-        <v>78.36807964162378</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="U13" t="n">
-        <v>38.38436553875449</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="V13" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="W13" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X13" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>158.3355078473624</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="C14" t="n">
-        <v>158.3355078473624</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="D14" t="n">
-        <v>158.3355078473624</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="E14" t="n">
-        <v>118.3517937444931</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="F14" t="n">
-        <v>78.36807964162378</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="G14" t="n">
-        <v>38.38436553875449</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="H14" t="n">
         <v>3.166710156947247</v>
@@ -5279,19 +5279,19 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K14" t="n">
-        <v>40.77139327069581</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L14" t="n">
-        <v>79.95943146291799</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M14" t="n">
-        <v>119.1474696551402</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="N14" t="n">
-        <v>119.1474696551402</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="O14" t="n">
-        <v>119.1474696551402</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="P14" t="n">
         <v>158.3355078473624</v>
@@ -5300,28 +5300,28 @@
         <v>158.3355078473624</v>
       </c>
       <c r="R14" t="n">
-        <v>158.3355078473624</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="S14" t="n">
-        <v>158.3355078473624</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="T14" t="n">
-        <v>158.3355078473624</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="U14" t="n">
-        <v>158.3355078473624</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="V14" t="n">
-        <v>158.3355078473624</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="W14" t="n">
-        <v>158.3355078473624</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="X14" t="n">
-        <v>158.3355078473624</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="Y14" t="n">
-        <v>158.3355078473624</v>
+        <v>123.1178524655551</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="C15" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="D15" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="E15" t="n">
-        <v>78.36807964162378</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="F15" t="n">
-        <v>38.38436553875449</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="G15" t="n">
-        <v>38.38436553875449</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="H15" t="n">
-        <v>38.38436553875449</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="I15" t="n">
         <v>3.166710156947247</v>
@@ -5358,22 +5358,22 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K15" t="n">
+        <v>3.166710156947247</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3.166710156947247</v>
+      </c>
+      <c r="M15" t="n">
         <v>40.77139327069581</v>
       </c>
-      <c r="L15" t="n">
-        <v>40.77139327069581</v>
-      </c>
-      <c r="M15" t="n">
+      <c r="N15" t="n">
         <v>79.95943146291799</v>
-      </c>
-      <c r="N15" t="n">
-        <v>119.1474696551402</v>
       </c>
       <c r="O15" t="n">
         <v>119.1474696551402</v>
       </c>
       <c r="P15" t="n">
-        <v>119.1474696551402</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q15" t="n">
         <v>158.3355078473624</v>
@@ -5385,22 +5385,22 @@
         <v>158.3355078473624</v>
       </c>
       <c r="T15" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U15" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V15" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W15" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X15" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y15" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C16" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D16" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E16" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F16" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G16" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H16" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I16" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J16" t="n">
         <v>3.166710156947247</v>
       </c>
       <c r="K16" t="n">
-        <v>14.52265134640421</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L16" t="n">
-        <v>41.83677635411719</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M16" t="n">
-        <v>81.02481454633937</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="N16" t="n">
-        <v>120.2128527385616</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="O16" t="n">
-        <v>144.5521293734608</v>
+        <v>145.0701013685131</v>
       </c>
       <c r="P16" t="n">
         <v>158.3355078473624</v>
       </c>
       <c r="Q16" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="R16" t="n">
-        <v>123.1178524655551</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="S16" t="n">
-        <v>83.13413836268582</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="T16" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="U16" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="V16" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="W16" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X16" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y16" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>316.5384651401808</v>
+        <v>6.399836165387534</v>
       </c>
       <c r="C17" t="n">
-        <v>316.5384651401808</v>
+        <v>6.399836165387534</v>
       </c>
       <c r="D17" t="n">
-        <v>236.6045092967008</v>
+        <v>6.399836165387534</v>
       </c>
       <c r="E17" t="n">
-        <v>156.6705534532208</v>
+        <v>6.399836165387534</v>
       </c>
       <c r="F17" t="n">
-        <v>76.73659760974078</v>
+        <v>6.399836165387534</v>
       </c>
       <c r="G17" t="n">
-        <v>6.330769302803617</v>
+        <v>6.399836165387534</v>
       </c>
       <c r="H17" t="n">
-        <v>6.330769302803617</v>
+        <v>6.399836165387534</v>
       </c>
       <c r="I17" t="n">
-        <v>6.330769302803617</v>
+        <v>6.399836165387534</v>
       </c>
       <c r="J17" t="n">
-        <v>6.330769302803617</v>
+        <v>6.399836165387534</v>
       </c>
       <c r="K17" t="n">
-        <v>84.67403942499837</v>
+        <v>85.59780871205825</v>
       </c>
       <c r="L17" t="n">
-        <v>163.0173095471931</v>
+        <v>164.795781258729</v>
       </c>
       <c r="M17" t="n">
-        <v>238.1951950179861</v>
+        <v>240.793835722706</v>
       </c>
       <c r="N17" t="n">
-        <v>238.1951950179861</v>
+        <v>240.793835722706</v>
       </c>
       <c r="O17" t="n">
-        <v>238.1951950179861</v>
+        <v>319.9918082693767</v>
       </c>
       <c r="P17" t="n">
-        <v>316.5384651401808</v>
+        <v>319.9918082693767</v>
       </c>
       <c r="Q17" t="n">
-        <v>316.5384651401808</v>
+        <v>319.9918082693767</v>
       </c>
       <c r="R17" t="n">
-        <v>316.5384651401808</v>
+        <v>239.1857960801402</v>
       </c>
       <c r="S17" t="n">
-        <v>316.5384651401808</v>
+        <v>158.3797838909036</v>
       </c>
       <c r="T17" t="n">
-        <v>316.5384651401808</v>
+        <v>77.5737717016671</v>
       </c>
       <c r="U17" t="n">
-        <v>316.5384651401808</v>
+        <v>6.399836165387534</v>
       </c>
       <c r="V17" t="n">
-        <v>316.5384651401808</v>
+        <v>6.399836165387534</v>
       </c>
       <c r="W17" t="n">
-        <v>316.5384651401808</v>
+        <v>6.399836165387534</v>
       </c>
       <c r="X17" t="n">
-        <v>316.5384651401808</v>
+        <v>6.399836165387534</v>
       </c>
       <c r="Y17" t="n">
-        <v>316.5384651401808</v>
+        <v>6.399836165387534</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>236.6045092967008</v>
+        <v>221.5617181985174</v>
       </c>
       <c r="C18" t="n">
-        <v>236.6045092967008</v>
+        <v>221.5617181985174</v>
       </c>
       <c r="D18" t="n">
-        <v>156.6705534532208</v>
+        <v>221.5617181985174</v>
       </c>
       <c r="E18" t="n">
-        <v>156.6705534532208</v>
+        <v>221.5617181985174</v>
       </c>
       <c r="F18" t="n">
-        <v>76.73659760974078</v>
+        <v>221.5617181985174</v>
       </c>
       <c r="G18" t="n">
-        <v>6.330769302803617</v>
+        <v>140.7557060092808</v>
       </c>
       <c r="H18" t="n">
-        <v>6.330769302803617</v>
+        <v>62.0430178625456</v>
       </c>
       <c r="I18" t="n">
-        <v>6.330769302803617</v>
+        <v>6.399836165387534</v>
       </c>
       <c r="J18" t="n">
-        <v>6.330769302803617</v>
+        <v>6.399836165387534</v>
       </c>
       <c r="K18" t="n">
-        <v>6.330769302803617</v>
+        <v>6.399836165387534</v>
       </c>
       <c r="L18" t="n">
-        <v>12.1140962602673</v>
+        <v>85.59780871205825</v>
       </c>
       <c r="M18" t="n">
-        <v>90.45736638246206</v>
+        <v>161.5958631760353</v>
       </c>
       <c r="N18" t="n">
-        <v>90.45736638246206</v>
+        <v>240.793835722706</v>
       </c>
       <c r="O18" t="n">
-        <v>168.8006365046568</v>
+        <v>319.9918082693767</v>
       </c>
       <c r="P18" t="n">
-        <v>247.1439066268516</v>
+        <v>319.9918082693767</v>
       </c>
       <c r="Q18" t="n">
-        <v>316.5384651401808</v>
+        <v>319.9918082693767</v>
       </c>
       <c r="R18" t="n">
-        <v>316.5384651401808</v>
+        <v>253.4787262679478</v>
       </c>
       <c r="S18" t="n">
-        <v>316.5384651401808</v>
+        <v>253.4787262679478</v>
       </c>
       <c r="T18" t="n">
-        <v>316.5384651401808</v>
+        <v>253.4787262679478</v>
       </c>
       <c r="U18" t="n">
-        <v>316.5384651401808</v>
+        <v>221.5617181985174</v>
       </c>
       <c r="V18" t="n">
-        <v>316.5384651401808</v>
+        <v>221.5617181985174</v>
       </c>
       <c r="W18" t="n">
-        <v>236.6045092967008</v>
+        <v>221.5617181985174</v>
       </c>
       <c r="X18" t="n">
-        <v>236.6045092967008</v>
+        <v>221.5617181985174</v>
       </c>
       <c r="Y18" t="n">
-        <v>236.6045092967008</v>
+        <v>221.5617181985174</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>183.6530913576166</v>
+        <v>227.6576152362285</v>
       </c>
       <c r="C19" t="n">
-        <v>166.1986809897637</v>
+        <v>227.6576152362285</v>
       </c>
       <c r="D19" t="n">
-        <v>166.1986809897637</v>
+        <v>146.851603046992</v>
       </c>
       <c r="E19" t="n">
-        <v>166.1986809897637</v>
+        <v>66.0455908577554</v>
       </c>
       <c r="F19" t="n">
-        <v>86.26472514628364</v>
+        <v>66.0455908577554</v>
       </c>
       <c r="G19" t="n">
-        <v>86.26472514628364</v>
+        <v>66.0455908577554</v>
       </c>
       <c r="H19" t="n">
-        <v>86.26472514628364</v>
+        <v>66.0455908577554</v>
       </c>
       <c r="I19" t="n">
-        <v>6.330769302803617</v>
+        <v>66.0455908577554</v>
       </c>
       <c r="J19" t="n">
-        <v>6.330769302803617</v>
+        <v>6.399836165387534</v>
       </c>
       <c r="K19" t="n">
-        <v>17.68671049226059</v>
+        <v>18.31982339927981</v>
       </c>
       <c r="L19" t="n">
-        <v>78.40357359705456</v>
+        <v>79.60073254850914</v>
       </c>
       <c r="M19" t="n">
-        <v>150.9943498863578</v>
+        <v>152.7555548822476</v>
       </c>
       <c r="N19" t="n">
-        <v>228.087938638875</v>
+        <v>230.4131896792002</v>
       </c>
       <c r="O19" t="n">
-        <v>285.8299533708553</v>
+        <v>288.7192504556158</v>
       </c>
       <c r="P19" t="n">
-        <v>316.5384651401808</v>
+        <v>319.9918082693767</v>
       </c>
       <c r="Q19" t="n">
-        <v>263.5870472010966</v>
+        <v>319.9918082693767</v>
       </c>
       <c r="R19" t="n">
-        <v>263.5870472010966</v>
+        <v>319.9918082693767</v>
       </c>
       <c r="S19" t="n">
-        <v>263.5870472010966</v>
+        <v>319.9918082693767</v>
       </c>
       <c r="T19" t="n">
-        <v>263.5870472010966</v>
+        <v>319.9918082693767</v>
       </c>
       <c r="U19" t="n">
-        <v>183.6530913576166</v>
+        <v>319.9918082693767</v>
       </c>
       <c r="V19" t="n">
-        <v>183.6530913576166</v>
+        <v>319.9918082693767</v>
       </c>
       <c r="W19" t="n">
-        <v>183.6530913576166</v>
+        <v>319.9918082693767</v>
       </c>
       <c r="X19" t="n">
-        <v>183.6530913576166</v>
+        <v>319.9918082693767</v>
       </c>
       <c r="Y19" t="n">
-        <v>183.6530913576166</v>
+        <v>308.463627425465</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>262.7299197543128</v>
+        <v>176.8943139477746</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>176.8943139477746</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
         <v>19.28114311021272</v>
@@ -5777,25 +5777,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>801.809491884341</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>625.3438686844236</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>420.3430905918747</v>
       </c>
       <c r="V20" t="n">
-        <v>749.627473042513</v>
+        <v>420.3430905918747</v>
       </c>
       <c r="W20" t="n">
-        <v>506.1786963984129</v>
+        <v>176.8943139477746</v>
       </c>
       <c r="X20" t="n">
-        <v>262.7299197543128</v>
+        <v>176.8943139477746</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.7299197543128</v>
+        <v>176.8943139477746</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>409.3393902969732</v>
+        <v>144.8504525971851</v>
       </c>
       <c r="C21" t="n">
-        <v>283.1945823461346</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>182.5683940151716</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>182.5683940151716</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>84.342057372345</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>84.342057372345</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
         <v>19.28114311021272</v>
@@ -5835,16 +5835,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>65.60123993063803</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M21" t="n">
-        <v>304.2053859195205</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5853,28 +5853,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>911.7713458576766</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>911.7713458576766</v>
       </c>
       <c r="T21" t="n">
-        <v>875.5424703228726</v>
+        <v>758.4684710105973</v>
       </c>
       <c r="U21" t="n">
-        <v>875.5424703228726</v>
+        <v>758.4684710105973</v>
       </c>
       <c r="V21" t="n">
-        <v>688.6985834214183</v>
+        <v>628.4122857279447</v>
       </c>
       <c r="W21" t="n">
-        <v>688.6985834214183</v>
+        <v>423.0586487938977</v>
       </c>
       <c r="X21" t="n">
-        <v>688.6985834214183</v>
+        <v>423.0586487938977</v>
       </c>
       <c r="Y21" t="n">
-        <v>529.2465059867528</v>
+        <v>264.1820698230985</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>776.1701672029709</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>776.1701672029709</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>674.9372475847898</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>674.9372475847898</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>674.9372475847898</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>674.9372475847898</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>674.9372475847898</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>566.8002856342391</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>566.8002856342391</v>
       </c>
       <c r="K22" t="n">
-        <v>44.58123392840434</v>
+        <v>592.6644224968661</v>
       </c>
       <c r="L22" t="n">
-        <v>119.242246661933</v>
+        <v>667.88948127483</v>
       </c>
       <c r="M22" t="n">
-        <v>205.7771725799708</v>
+        <v>754.9884532373031</v>
       </c>
       <c r="N22" t="n">
-        <v>296.8149109612227</v>
+        <v>846.5902376629904</v>
       </c>
       <c r="O22" t="n">
-        <v>368.5010753219376</v>
+        <v>918.8404480681406</v>
       </c>
       <c r="P22" t="n">
-        <v>413.1537367199978</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>413.1537367199978</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>413.1537367199978</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>413.1537367199978</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>413.1537367199978</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U22" t="n">
-        <v>413.1537367199978</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V22" t="n">
-        <v>371.4468304911834</v>
+        <v>948.0790265523464</v>
       </c>
       <c r="W22" t="n">
-        <v>371.4468304911834</v>
+        <v>948.0790265523464</v>
       </c>
       <c r="X22" t="n">
-        <v>191.7655009234545</v>
+        <v>948.0790265523464</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>776.1701672029709</v>
       </c>
     </row>
     <row r="23">
@@ -6020,19 +6020,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>759.0563774180873</v>
       </c>
       <c r="V23" t="n">
-        <v>749.627473042513</v>
+        <v>515.6076007739873</v>
       </c>
       <c r="W23" t="n">
-        <v>506.1786963984129</v>
+        <v>272.1588241298873</v>
       </c>
       <c r="X23" t="n">
-        <v>262.7299197543128</v>
+        <v>28.71004748578719</v>
       </c>
       <c r="Y23" t="n">
-        <v>19.28114311021272</v>
+        <v>28.71004748578719</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>272.8279729288979</v>
+        <v>355.2548776755826</v>
       </c>
       <c r="C24" t="n">
-        <v>272.8279729288979</v>
+        <v>229.6855681886102</v>
       </c>
       <c r="D24" t="n">
-        <v>172.201784597935</v>
+        <v>129.6348783215136</v>
       </c>
       <c r="E24" t="n">
-        <v>61.27255092276785</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>61.27255092276785</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>61.27255092276785</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>61.27255092276785</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
         <v>19.28114311021272</v>
@@ -6072,46 +6072,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>911.7713458576766</v>
       </c>
       <c r="S24" t="n">
-        <v>838.9480322915934</v>
+        <v>792.4308542836733</v>
       </c>
       <c r="T24" t="n">
-        <v>838.9480322915934</v>
+        <v>792.4308542836733</v>
       </c>
       <c r="U24" t="n">
-        <v>659.0326353582709</v>
+        <v>792.4308542836733</v>
       </c>
       <c r="V24" t="n">
-        <v>472.1887484568166</v>
+        <v>792.4308542836733</v>
       </c>
       <c r="W24" t="n">
-        <v>432.2800503635634</v>
+        <v>792.4308542836733</v>
       </c>
       <c r="X24" t="n">
-        <v>432.2800503635634</v>
+        <v>633.4630738722951</v>
       </c>
       <c r="Y24" t="n">
-        <v>272.8279729288979</v>
+        <v>474.5864949014959</v>
       </c>
     </row>
     <row r="25">
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>240.6693789067561</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>240.6693789067561</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>240.6693789067561</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>239.2425058853835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>140.6607797177615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
         <v>19.28114311021272</v>
@@ -6148,49 +6148,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>44.58123392840434</v>
+        <v>45.14527997283969</v>
       </c>
       <c r="L25" t="n">
-        <v>119.242246661933</v>
+        <v>120.3703387508036</v>
       </c>
       <c r="M25" t="n">
-        <v>205.7771725799708</v>
+        <v>207.4693107132768</v>
       </c>
       <c r="N25" t="n">
-        <v>296.8149109612227</v>
+        <v>299.0710951389641</v>
       </c>
       <c r="O25" t="n">
-        <v>368.5010753219376</v>
+        <v>371.3213055441144</v>
       </c>
       <c r="P25" t="n">
-        <v>413.1537367199978</v>
+        <v>416.5380129866099</v>
       </c>
       <c r="Q25" t="n">
-        <v>413.1537367199978</v>
+        <v>416.5380129866099</v>
       </c>
       <c r="R25" t="n">
-        <v>413.1537367199978</v>
+        <v>416.5380129866099</v>
       </c>
       <c r="S25" t="n">
-        <v>413.1537367199978</v>
+        <v>416.5380129866099</v>
       </c>
       <c r="T25" t="n">
-        <v>413.1537367199978</v>
+        <v>416.5380129866099</v>
       </c>
       <c r="U25" t="n">
-        <v>413.1537367199978</v>
+        <v>416.5380129866099</v>
       </c>
       <c r="V25" t="n">
-        <v>413.1537367199978</v>
+        <v>392.5793383891038</v>
       </c>
       <c r="W25" t="n">
-        <v>413.1537367199978</v>
+        <v>152.0458881462978</v>
       </c>
       <c r="X25" t="n">
-        <v>413.1537367199978</v>
+        <v>152.0458881462978</v>
       </c>
       <c r="Y25" t="n">
-        <v>240.6693789067561</v>
+        <v>152.0458881462978</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>181.4204186431051</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
-        <v>181.4204186431051</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D26" t="n">
-        <v>181.4204186431051</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>181.4204186431051</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>181.4204186431051</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>181.4204186431051</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H26" t="n">
-        <v>181.4204186431051</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6248,28 +6248,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>864.2056240808828</v>
       </c>
       <c r="S26" t="n">
-        <v>843.204681801294</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T26" t="n">
-        <v>668.3179719313052</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U26" t="n">
-        <v>668.3179719313052</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V26" t="n">
-        <v>668.3179719313052</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W26" t="n">
-        <v>668.3179719313052</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X26" t="n">
-        <v>668.3179719313052</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
-        <v>424.8691952872051</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6279,16 +6279,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>174.7411627688644</v>
+        <v>114.2842850977785</v>
       </c>
       <c r="C27" t="n">
-        <v>50.75076661182068</v>
+        <v>114.2842850977785</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>114.2842850977785</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>114.2842850977785</v>
       </c>
       <c r="F27" t="n">
         <v>19.28114311021272</v>
@@ -6309,16 +6309,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>725.4530095217538</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6330,25 +6330,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>842.1712269468544</v>
       </c>
       <c r="T27" t="n">
-        <v>812.3331939934856</v>
+        <v>691.5160482911697</v>
       </c>
       <c r="U27" t="n">
-        <v>634.5722088539579</v>
+        <v>691.5160482911697</v>
       </c>
       <c r="V27" t="n">
-        <v>449.8827337462985</v>
+        <v>507.8953560449763</v>
       </c>
       <c r="W27" t="n">
-        <v>449.8827337462985</v>
+        <v>507.8953560449763</v>
       </c>
       <c r="X27" t="n">
-        <v>292.4938666648491</v>
+        <v>387.1970889117018</v>
       </c>
       <c r="Y27" t="n">
-        <v>292.4938666648491</v>
+        <v>230.9682061322972</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>425.8229707145884</v>
+        <v>663.56465824117</v>
       </c>
       <c r="C28" t="n">
-        <v>425.8229707145884</v>
+        <v>663.56465824117</v>
       </c>
       <c r="D28" t="n">
-        <v>332.3841427561033</v>
+        <v>663.56465824117</v>
       </c>
       <c r="E28" t="n">
-        <v>234.9336822977936</v>
+        <v>663.56465824117</v>
       </c>
       <c r="F28" t="n">
-        <v>138.5063679239665</v>
+        <v>663.56465824117</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>663.56465824117</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>551.2302434111238</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>551.2302434111238</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>551.2302434111238</v>
       </c>
       <c r="K28" t="n">
-        <v>46.69277292750278</v>
+        <v>579.6893873109366</v>
       </c>
       <c r="L28" t="n">
-        <v>123.4653246601298</v>
+        <v>657.5094531260864</v>
       </c>
       <c r="M28" t="n">
-        <v>212.1117895772661</v>
+        <v>747.2034321257455</v>
       </c>
       <c r="N28" t="n">
-        <v>305.2610669576164</v>
+        <v>841.4002235886187</v>
       </c>
       <c r="O28" t="n">
-        <v>379.0587703174298</v>
+        <v>916.2454410309548</v>
       </c>
       <c r="P28" t="n">
-        <v>425.8229707145884</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>425.8229707145884</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>425.8229707145884</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>425.8229707145884</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>425.8229707145884</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>425.8229707145884</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>425.8229707145884</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>425.8229707145884</v>
+        <v>840.0227931536381</v>
       </c>
       <c r="X28" t="n">
-        <v>425.8229707145884</v>
+        <v>663.56465824117</v>
       </c>
       <c r="Y28" t="n">
-        <v>425.8229707145884</v>
+        <v>663.56465824117</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>726.6853020361056</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>726.6853020361056</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>483.8164052249385</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>240.3676285808385</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>240.3676285808385</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6461,7 +6461,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K29" t="n">
         <v>122.2961490211351</v>
@@ -6488,25 +6488,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>868.3225738857699</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>868.3225738857699</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>868.3225738857699</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>652.6564883377828</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>652.6564883377828</v>
+        <v>726.6853020361056</v>
       </c>
       <c r="X29" t="n">
-        <v>409.2077116936827</v>
+        <v>726.6853020361056</v>
       </c>
       <c r="Y29" t="n">
-        <v>165.7589350495826</v>
+        <v>726.6853020361056</v>
       </c>
     </row>
     <row r="30">
@@ -6546,19 +6546,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>178.8501590306595</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M30" t="n">
-        <v>417.4543050195419</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N30" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6582,7 +6582,7 @@
         <v>447.824142074433</v>
       </c>
       <c r="X30" t="n">
-        <v>355.3694436644837</v>
+        <v>355.3694436644836</v>
       </c>
       <c r="Y30" t="n">
         <v>263.0059466951132</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>30.70064153162031</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>30.70064153162031</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>30.70064153162031</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>30.70064153162031</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>30.70064153162031</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>30.70064153162031</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>30.70064153162031</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
         <v>19.28114311021272</v>
@@ -6649,22 +6649,22 @@
         <v>745.2670525882772</v>
       </c>
       <c r="T31" t="n">
-        <v>630.4157842542834</v>
+        <v>724.3920631808226</v>
       </c>
       <c r="U31" t="n">
-        <v>456.6014452857347</v>
+        <v>550.5777242122738</v>
       </c>
       <c r="V31" t="n">
-        <v>317.3137588754313</v>
+        <v>411.2900378019704</v>
       </c>
       <c r="W31" t="n">
-        <v>143.2933906340542</v>
+        <v>237.2696695605932</v>
       </c>
       <c r="X31" t="n">
-        <v>30.70064153162031</v>
+        <v>124.6769204581593</v>
       </c>
       <c r="Y31" t="n">
-        <v>30.70064153162031</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>726.6853020361056</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C32" t="n">
-        <v>726.6853020361056</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D32" t="n">
-        <v>726.6853020361056</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E32" t="n">
-        <v>483.2365253920055</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F32" t="n">
-        <v>239.7877487479054</v>
+        <v>587.4420653410984</v>
       </c>
       <c r="G32" t="n">
-        <v>239.7877487479054</v>
+        <v>343.9932886969983</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>116.4862499716049</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6737,13 +6737,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>726.6853020361056</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>726.6853020361056</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y32" t="n">
-        <v>726.6853020361056</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>210.1874114706287</v>
+        <v>210.1874114706286</v>
       </c>
       <c r="C33" t="n">
         <v>151.131183985085</v>
       </c>
       <c r="D33" t="n">
-        <v>117.5935761194174</v>
+        <v>117.5935761194173</v>
       </c>
       <c r="E33" t="n">
-        <v>73.7529229095453</v>
+        <v>73.75292290954526</v>
       </c>
       <c r="F33" t="n">
-        <v>42.61516673201373</v>
+        <v>42.61516673201372</v>
       </c>
       <c r="G33" t="n">
         <v>19.28114311021272</v>
@@ -6783,19 +6783,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6813,16 +6813,16 @@
         <v>706.4200034432106</v>
       </c>
       <c r="V33" t="n">
-        <v>586.6646970070512</v>
+        <v>586.664697007051</v>
       </c>
       <c r="W33" t="n">
-        <v>447.8241420744332</v>
+        <v>447.8241420744329</v>
       </c>
       <c r="X33" t="n">
-        <v>355.3694436644837</v>
+        <v>355.3694436644835</v>
       </c>
       <c r="Y33" t="n">
-        <v>263.0059466951133</v>
+        <v>263.0059466951131</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>133.6923768276701</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>80.15299569534668</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>80.15299569534668</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>80.15299569534668</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>80.15299569534668</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>25.86193955309302</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>25.86193955309302</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>39.95596023455803</v>
+        <v>39.95596023455805</v>
       </c>
       <c r="K34" t="n">
         <v>131.0095687667854</v>
       </c>
       <c r="L34" t="n">
-        <v>271.4240992143497</v>
+        <v>271.4240992143498</v>
       </c>
       <c r="M34" t="n">
-        <v>423.7125428464232</v>
+        <v>423.7125428464233</v>
       </c>
       <c r="N34" t="n">
-        <v>580.5037989417109</v>
+        <v>580.503798941711</v>
       </c>
       <c r="O34" t="n">
-        <v>717.9434810164615</v>
+        <v>717.9434810164616</v>
       </c>
       <c r="P34" t="n">
-        <v>828.3496601285574</v>
+        <v>828.3496601285576</v>
       </c>
       <c r="Q34" t="n">
-        <v>856.1496427492314</v>
+        <v>856.1496427492316</v>
       </c>
       <c r="R34" t="n">
-        <v>792.4622108305023</v>
+        <v>792.4622108305025</v>
       </c>
       <c r="S34" t="n">
-        <v>792.4622108305023</v>
+        <v>681.5796206695484</v>
       </c>
       <c r="T34" t="n">
-        <v>792.4622108305023</v>
+        <v>681.5796206695484</v>
       </c>
       <c r="U34" t="n">
-        <v>618.6478718619535</v>
+        <v>550.5777242122737</v>
       </c>
       <c r="V34" t="n">
-        <v>479.3601854516501</v>
+        <v>411.2900378019703</v>
       </c>
       <c r="W34" t="n">
-        <v>305.3398172102729</v>
+        <v>237.2696695605932</v>
       </c>
       <c r="X34" t="n">
-        <v>305.3398172102729</v>
+        <v>124.6769204581593</v>
       </c>
       <c r="Y34" t="n">
-        <v>199.9440398623263</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>398.7915225808123</v>
+        <v>269.8219575098977</v>
       </c>
       <c r="C35" t="n">
-        <v>398.7915225808123</v>
+        <v>54.24189324995538</v>
       </c>
       <c r="D35" t="n">
-        <v>398.7915225808123</v>
+        <v>54.24189324995538</v>
       </c>
       <c r="E35" t="n">
-        <v>398.7915225808123</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="F35" t="n">
-        <v>398.7915225808123</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="G35" t="n">
-        <v>219.5794954944963</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="H35" t="n">
-        <v>16.11443295326548</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="I35" t="n">
-        <v>16.11443295326548</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="J35" t="n">
-        <v>16.11443295326548</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="K35" t="n">
-        <v>119.1294388641878</v>
+        <v>120.0889470003098</v>
       </c>
       <c r="L35" t="n">
-        <v>299.2052904488464</v>
+        <v>300.1647985849684</v>
       </c>
       <c r="M35" t="n">
-        <v>367.4505344319145</v>
+        <v>511.4548195661379</v>
       </c>
       <c r="N35" t="n">
-        <v>566.8666422285748</v>
+        <v>717.3093417733771</v>
       </c>
       <c r="O35" t="n">
-        <v>716.0615923712229</v>
+        <v>764.0369991773207</v>
       </c>
       <c r="P35" t="n">
-        <v>805.7216476632739</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="Q35" t="n">
-        <v>805.7216476632739</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="R35" t="n">
-        <v>805.7216476632739</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="S35" t="n">
-        <v>805.7216476632739</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="T35" t="n">
-        <v>805.7216476632739</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="U35" t="n">
-        <v>805.7216476632739</v>
+        <v>700.9820860297824</v>
       </c>
       <c r="V35" t="n">
-        <v>805.7216476632739</v>
+        <v>700.9820860297824</v>
       </c>
       <c r="W35" t="n">
-        <v>805.7216476632739</v>
+        <v>700.9820860297824</v>
       </c>
       <c r="X35" t="n">
-        <v>602.2565851220431</v>
+        <v>700.9820860297824</v>
       </c>
       <c r="Y35" t="n">
-        <v>398.7915225808123</v>
+        <v>485.4020217698401</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>147.4658583456194</v>
+        <v>125.3027543167814</v>
       </c>
       <c r="C36" t="n">
-        <v>74.18235851160671</v>
+        <v>125.3027543167814</v>
       </c>
       <c r="D36" t="n">
-        <v>74.18235851160671</v>
+        <v>77.53787410264441</v>
       </c>
       <c r="E36" t="n">
-        <v>16.11443295326548</v>
+        <v>77.53787410264441</v>
       </c>
       <c r="F36" t="n">
-        <v>16.11443295326548</v>
+        <v>32.17284557664365</v>
       </c>
       <c r="G36" t="n">
-        <v>16.11443295326548</v>
+        <v>29.27354723469383</v>
       </c>
       <c r="H36" t="n">
-        <v>16.11443295326548</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="I36" t="n">
-        <v>16.11443295326548</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="J36" t="n">
-        <v>16.11443295326548</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="K36" t="n">
-        <v>141.4719930111029</v>
+        <v>142.4315011472248</v>
       </c>
       <c r="L36" t="n">
-        <v>141.4719930111029</v>
+        <v>353.7215221283943</v>
       </c>
       <c r="M36" t="n">
-        <v>154.851395943273</v>
+        <v>565.0115431095638</v>
       </c>
       <c r="N36" t="n">
-        <v>354.2675037399333</v>
+        <v>642.4070334882022</v>
       </c>
       <c r="O36" t="n">
-        <v>553.6836115365936</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="P36" t="n">
-        <v>736.3270891499445</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="Q36" t="n">
-        <v>805.7216476632739</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="R36" t="n">
-        <v>805.7216476632739</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="S36" t="n">
-        <v>733.473832561057</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="T36" t="n">
-        <v>632.4567673669372</v>
+        <v>752.679989275252</v>
       </c>
       <c r="U36" t="n">
-        <v>505.4026785504406</v>
+        <v>625.6259004587553</v>
       </c>
       <c r="V36" t="n">
-        <v>505.4026785504406</v>
+        <v>491.6433216741269</v>
       </c>
       <c r="W36" t="n">
-        <v>352.3348512693532</v>
+        <v>338.5754943930395</v>
       </c>
       <c r="X36" t="n">
-        <v>254.0566276634591</v>
+        <v>231.893523634621</v>
       </c>
       <c r="Y36" t="n">
-        <v>147.4658583456194</v>
+        <v>125.3027543167814</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>133.7108206295717</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="C37" t="n">
-        <v>133.7108206295717</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="D37" t="n">
-        <v>133.7108206295717</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="E37" t="n">
-        <v>133.7108206295717</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="F37" t="n">
-        <v>133.7108206295717</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="G37" t="n">
-        <v>78.81073432174674</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="H37" t="n">
-        <v>16.11443295326548</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="I37" t="n">
-        <v>16.11443295326548</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="J37" t="n">
-        <v>22.84510044887613</v>
+        <v>23.80460858499809</v>
       </c>
       <c r="K37" t="n">
-        <v>99.95455935236882</v>
+        <v>100.9140674884908</v>
       </c>
       <c r="L37" t="n">
-        <v>226.4249401711985</v>
+        <v>227.3844483073204</v>
       </c>
       <c r="M37" t="n">
-        <v>364.7692341745374</v>
+        <v>365.7287423106593</v>
       </c>
       <c r="N37" t="n">
-        <v>507.6163406410903</v>
+        <v>508.5758487772123</v>
       </c>
       <c r="O37" t="n">
-        <v>631.1118730871063</v>
+        <v>632.0713812232283</v>
       </c>
       <c r="P37" t="n">
-        <v>727.5739025704676</v>
+        <v>728.5334107065895</v>
       </c>
       <c r="Q37" t="n">
-        <v>741.4297355624068</v>
+        <v>742.3892436985287</v>
       </c>
       <c r="R37" t="n">
-        <v>663.5150312952085</v>
+        <v>688.0170662000105</v>
       </c>
       <c r="S37" t="n">
-        <v>663.5150312952085</v>
+        <v>688.0170662000105</v>
       </c>
       <c r="T37" t="n">
-        <v>663.5150312952085</v>
+        <v>558.9385255175475</v>
       </c>
       <c r="U37" t="n">
-        <v>475.4734199781906</v>
+        <v>558.9385255175475</v>
       </c>
       <c r="V37" t="n">
-        <v>321.958461219418</v>
+        <v>405.423566758775</v>
       </c>
       <c r="W37" t="n">
-        <v>133.7108206295717</v>
+        <v>217.1759261689287</v>
       </c>
       <c r="X37" t="n">
-        <v>133.7108206295717</v>
+        <v>217.1759261689287</v>
       </c>
       <c r="Y37" t="n">
-        <v>133.7108206295717</v>
+        <v>97.55287647251285</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>398.7915225808123</v>
+        <v>805.7216476632739</v>
       </c>
       <c r="C38" t="n">
-        <v>398.7915225808123</v>
+        <v>805.7216476632739</v>
       </c>
       <c r="D38" t="n">
-        <v>398.7915225808123</v>
+        <v>805.7216476632739</v>
       </c>
       <c r="E38" t="n">
-        <v>398.7915225808123</v>
+        <v>602.2565851220431</v>
       </c>
       <c r="F38" t="n">
-        <v>398.7915225808123</v>
+        <v>423.0445580357271</v>
       </c>
       <c r="G38" t="n">
-        <v>195.3264600395815</v>
+        <v>219.5794954944963</v>
       </c>
       <c r="H38" t="n">
         <v>16.11443295326548</v>
@@ -7184,7 +7184,7 @@
         <v>498.6213982455067</v>
       </c>
       <c r="N38" t="n">
-        <v>566.8666422285748</v>
+        <v>698.037506042167</v>
       </c>
       <c r="O38" t="n">
         <v>716.0615923712229</v>
@@ -7217,7 +7217,7 @@
         <v>805.7216476632739</v>
       </c>
       <c r="Y38" t="n">
-        <v>602.2565851220431</v>
+        <v>805.7216476632739</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>240.5957670857572</v>
+        <v>204.3814363271803</v>
       </c>
       <c r="C39" t="n">
-        <v>167.3122672517445</v>
+        <v>131.0979364931675</v>
       </c>
       <c r="D39" t="n">
-        <v>119.5473870376075</v>
+        <v>83.33305627903054</v>
       </c>
       <c r="E39" t="n">
-        <v>61.47946147926623</v>
+        <v>83.33305627903054</v>
       </c>
       <c r="F39" t="n">
-        <v>16.11443295326548</v>
+        <v>65.87533506884208</v>
       </c>
       <c r="G39" t="n">
-        <v>16.11443295326548</v>
+        <v>28.31403909857187</v>
       </c>
       <c r="H39" t="n">
         <v>16.11443295326548</v>
@@ -7257,19 +7257,19 @@
         <v>141.4719930111029</v>
       </c>
       <c r="L39" t="n">
-        <v>141.4719930111029</v>
+        <v>224.2459544566025</v>
       </c>
       <c r="M39" t="n">
-        <v>154.851395943273</v>
+        <v>224.2459544566025</v>
       </c>
       <c r="N39" t="n">
-        <v>354.2675037399333</v>
+        <v>423.6620622532628</v>
       </c>
       <c r="O39" t="n">
-        <v>553.6836115365936</v>
+        <v>623.0781700499231</v>
       </c>
       <c r="P39" t="n">
-        <v>736.3270891499445</v>
+        <v>805.7216476632739</v>
       </c>
       <c r="Q39" t="n">
         <v>805.7216476632739</v>
@@ -7278,25 +7278,25 @@
         <v>805.7216476632739</v>
       </c>
       <c r="S39" t="n">
-        <v>733.473832561057</v>
+        <v>805.7216476632739</v>
       </c>
       <c r="T39" t="n">
-        <v>632.4567673669372</v>
+        <v>704.7045824691542</v>
       </c>
       <c r="U39" t="n">
-        <v>632.4567673669372</v>
+        <v>704.7045824691542</v>
       </c>
       <c r="V39" t="n">
-        <v>632.4567673669372</v>
+        <v>570.7220036845258</v>
       </c>
       <c r="W39" t="n">
-        <v>520.9143147349691</v>
+        <v>417.6541764034384</v>
       </c>
       <c r="X39" t="n">
-        <v>414.2323439765506</v>
+        <v>310.9722056450199</v>
       </c>
       <c r="Y39" t="n">
-        <v>307.641574658711</v>
+        <v>204.3814363271803</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.35155365683445</v>
+        <v>148.9246735448554</v>
       </c>
       <c r="C40" t="n">
-        <v>24.35155365683445</v>
+        <v>148.9246735448554</v>
       </c>
       <c r="D40" t="n">
-        <v>24.35155365683445</v>
+        <v>148.9246735448554</v>
       </c>
       <c r="E40" t="n">
-        <v>24.35155365683445</v>
+        <v>148.9246735448554</v>
       </c>
       <c r="F40" t="n">
-        <v>24.35155365683445</v>
+        <v>148.9246735448554</v>
       </c>
       <c r="G40" t="n">
-        <v>16.11443295326548</v>
+        <v>80.40634505413256</v>
       </c>
       <c r="H40" t="n">
-        <v>16.11443295326548</v>
+        <v>80.40634505413256</v>
       </c>
       <c r="I40" t="n">
-        <v>16.11443295326548</v>
+        <v>80.40634505413256</v>
       </c>
       <c r="J40" t="n">
-        <v>22.84510044887613</v>
+        <v>87.13701254974322</v>
       </c>
       <c r="K40" t="n">
-        <v>99.95455935236882</v>
+        <v>164.2464714532359</v>
       </c>
       <c r="L40" t="n">
-        <v>226.4249401711985</v>
+        <v>290.7168522720656</v>
       </c>
       <c r="M40" t="n">
-        <v>364.7692341745374</v>
+        <v>429.0611462754044</v>
       </c>
       <c r="N40" t="n">
-        <v>507.6163406410903</v>
+        <v>571.9082527419574</v>
       </c>
       <c r="O40" t="n">
-        <v>631.1118730871063</v>
+        <v>695.4037851879734</v>
       </c>
       <c r="P40" t="n">
-        <v>727.5739025704676</v>
+        <v>791.8658146713346</v>
       </c>
       <c r="Q40" t="n">
-        <v>741.4297355624068</v>
+        <v>805.7216476632739</v>
       </c>
       <c r="R40" t="n">
-        <v>741.4297355624068</v>
+        <v>727.8069433960756</v>
       </c>
       <c r="S40" t="n">
-        <v>741.4297355624068</v>
+        <v>727.8069433960756</v>
       </c>
       <c r="T40" t="n">
-        <v>612.3511948799438</v>
+        <v>727.8069433960756</v>
       </c>
       <c r="U40" t="n">
-        <v>424.3095835629259</v>
+        <v>727.8069433960756</v>
       </c>
       <c r="V40" t="n">
-        <v>270.7946248041533</v>
+        <v>574.2919846373029</v>
       </c>
       <c r="W40" t="n">
-        <v>270.7946248041533</v>
+        <v>386.0443440474565</v>
       </c>
       <c r="X40" t="n">
-        <v>143.9746033532503</v>
+        <v>259.2243225965535</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.35155365683445</v>
+        <v>148.9246735448554</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>339.9800154086492</v>
+        <v>644.0653472412594</v>
       </c>
       <c r="C41" t="n">
-        <v>339.9800154086492</v>
+        <v>644.0653472412594</v>
       </c>
       <c r="D41" t="n">
-        <v>339.9800154086492</v>
+        <v>481.4225827863959</v>
       </c>
       <c r="E41" t="n">
-        <v>339.9800154086492</v>
+        <v>338.1668358545521</v>
       </c>
       <c r="F41" t="n">
-        <v>339.9800154086492</v>
+        <v>175.5240713996887</v>
       </c>
       <c r="G41" t="n">
-        <v>176.4651946080292</v>
+        <v>12.88130694482519</v>
       </c>
       <c r="H41" t="n">
-        <v>12.95037380740911</v>
+        <v>12.88130694482519</v>
       </c>
       <c r="I41" t="n">
-        <v>12.95037380740911</v>
+        <v>12.88130694482519</v>
       </c>
       <c r="J41" t="n">
-        <v>12.95037380740911</v>
+        <v>12.88130694482519</v>
       </c>
       <c r="K41" t="n">
-        <v>115.9653797183315</v>
+        <v>115.8963128557475</v>
       </c>
       <c r="L41" t="n">
-        <v>276.2262555850192</v>
+        <v>275.3024862979593</v>
       </c>
       <c r="M41" t="n">
-        <v>408.6636849357564</v>
+        <v>434.708659740171</v>
       </c>
       <c r="N41" t="n">
-        <v>408.6636849357564</v>
+        <v>554.4052919492084</v>
       </c>
       <c r="O41" t="n">
-        <v>557.8586350784044</v>
+        <v>554.4052919492084</v>
       </c>
       <c r="P41" t="n">
-        <v>647.5186903704554</v>
+        <v>644.0653472412594</v>
       </c>
       <c r="Q41" t="n">
-        <v>647.5186903704554</v>
+        <v>644.0653472412594</v>
       </c>
       <c r="R41" t="n">
-        <v>647.5186903704554</v>
+        <v>644.0653472412594</v>
       </c>
       <c r="S41" t="n">
-        <v>647.5186903704554</v>
+        <v>644.0653472412594</v>
       </c>
       <c r="T41" t="n">
-        <v>647.5186903704554</v>
+        <v>644.0653472412594</v>
       </c>
       <c r="U41" t="n">
-        <v>503.4948362092692</v>
+        <v>644.0653472412594</v>
       </c>
       <c r="V41" t="n">
-        <v>503.4948362092692</v>
+        <v>644.0653472412594</v>
       </c>
       <c r="W41" t="n">
-        <v>503.4948362092692</v>
+        <v>644.0653472412594</v>
       </c>
       <c r="X41" t="n">
-        <v>503.4948362092692</v>
+        <v>644.0653472412594</v>
       </c>
       <c r="Y41" t="n">
-        <v>503.4948362092692</v>
+        <v>644.0653472412594</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>84.64045338552361</v>
+        <v>12.88130694482519</v>
       </c>
       <c r="C42" t="n">
-        <v>84.64045338552361</v>
+        <v>12.88130694482519</v>
       </c>
       <c r="D42" t="n">
-        <v>84.64045338552361</v>
+        <v>12.88130694482519</v>
       </c>
       <c r="E42" t="n">
-        <v>14.32650066516037</v>
+        <v>12.88130694482519</v>
       </c>
       <c r="F42" t="n">
-        <v>14.32650066516037</v>
+        <v>12.88130694482519</v>
       </c>
       <c r="G42" t="n">
-        <v>14.32650066516037</v>
+        <v>12.88130694482519</v>
       </c>
       <c r="H42" t="n">
-        <v>14.32650066516037</v>
+        <v>12.88130694482519</v>
       </c>
       <c r="I42" t="n">
-        <v>12.95037380740911</v>
+        <v>12.88130694482519</v>
       </c>
       <c r="J42" t="n">
-        <v>12.95037380740911</v>
+        <v>12.88130694482519</v>
       </c>
       <c r="K42" t="n">
-        <v>138.3079338652465</v>
+        <v>12.88130694482519</v>
       </c>
       <c r="L42" t="n">
-        <v>298.5688097319343</v>
+        <v>172.2874803870369</v>
       </c>
       <c r="M42" t="n">
-        <v>458.8296855986219</v>
+        <v>331.6936538292485</v>
       </c>
       <c r="N42" t="n">
-        <v>619.0905614653096</v>
+        <v>491.0998272714602</v>
       </c>
       <c r="O42" t="n">
-        <v>619.0905614653096</v>
+        <v>644.0653472412594</v>
       </c>
       <c r="P42" t="n">
-        <v>647.5186903704554</v>
+        <v>644.0653472412594</v>
       </c>
       <c r="Q42" t="n">
-        <v>647.5186903704554</v>
+        <v>644.0653472412594</v>
       </c>
       <c r="R42" t="n">
-        <v>635.2726632084333</v>
+        <v>644.0653472412594</v>
       </c>
       <c r="S42" t="n">
-        <v>550.7788209441944</v>
+        <v>644.0653472412594</v>
       </c>
       <c r="T42" t="n">
-        <v>437.5157285880528</v>
+        <v>530.308970487518</v>
       </c>
       <c r="U42" t="n">
-        <v>298.2156126095341</v>
+        <v>390.5155701113997</v>
       </c>
       <c r="V42" t="n">
-        <v>151.9870066628836</v>
+        <v>243.7936797671495</v>
       </c>
       <c r="W42" t="n">
-        <v>84.64045338552361</v>
+        <v>81.15091531228606</v>
       </c>
       <c r="X42" t="n">
-        <v>84.64045338552361</v>
+        <v>12.88130694482519</v>
       </c>
       <c r="Y42" t="n">
-        <v>84.64045338552361</v>
+        <v>12.88130694482519</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>18.32907366037016</v>
+        <v>157.7189858462179</v>
       </c>
       <c r="C43" t="n">
-        <v>18.32907366037016</v>
+        <v>77.21302080580365</v>
       </c>
       <c r="D43" t="n">
-        <v>18.32907366037016</v>
+        <v>77.21302080580365</v>
       </c>
       <c r="E43" t="n">
-        <v>18.32907366037016</v>
+        <v>77.21302080580365</v>
       </c>
       <c r="F43" t="n">
-        <v>18.32907366037016</v>
+        <v>18.7532911953859</v>
       </c>
       <c r="G43" t="n">
-        <v>18.32907366037016</v>
+        <v>18.7532911953859</v>
       </c>
       <c r="H43" t="n">
-        <v>18.32907366037016</v>
+        <v>18.7532911953859</v>
       </c>
       <c r="I43" t="n">
-        <v>18.32907366037016</v>
+        <v>18.7532911953859</v>
       </c>
       <c r="J43" t="n">
-        <v>12.95037380740911</v>
+        <v>12.88130694482519</v>
       </c>
       <c r="K43" t="n">
-        <v>78.05750148940399</v>
+        <v>77.50496658873264</v>
       </c>
       <c r="L43" t="n">
-        <v>192.525551086736</v>
+        <v>191.4895481479771</v>
       </c>
       <c r="M43" t="n">
-        <v>318.867513868577</v>
+        <v>317.3480428917307</v>
       </c>
       <c r="N43" t="n">
-        <v>449.7122891136323</v>
+        <v>447.7093500986985</v>
       </c>
       <c r="O43" t="n">
-        <v>561.2054903381504</v>
+        <v>558.7190832851293</v>
       </c>
       <c r="P43" t="n">
-        <v>645.6651886000139</v>
+        <v>642.6953135089053</v>
       </c>
       <c r="Q43" t="n">
-        <v>647.5186903704554</v>
+        <v>644.0653472412594</v>
       </c>
       <c r="R43" t="n">
-        <v>647.5186903704554</v>
+        <v>644.0653472412594</v>
       </c>
       <c r="S43" t="n">
-        <v>647.5186903704554</v>
+        <v>644.0653472412594</v>
       </c>
       <c r="T43" t="n">
-        <v>506.1941225259703</v>
+        <v>502.2474949991747</v>
       </c>
       <c r="U43" t="n">
-        <v>342.6793017253503</v>
+        <v>502.2474949991747</v>
       </c>
       <c r="V43" t="n">
-        <v>320.9099430739153</v>
+        <v>339.6047305443112</v>
       </c>
       <c r="W43" t="n">
-        <v>157.3951222732953</v>
+        <v>297.2783188567427</v>
       </c>
       <c r="X43" t="n">
-        <v>18.32907366037016</v>
+        <v>157.7189858462179</v>
       </c>
       <c r="Y43" t="n">
-        <v>18.32907366037016</v>
+        <v>157.7189858462179</v>
       </c>
     </row>
     <row r="44">
@@ -8690,19 +8690,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>258.0743794427063</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L11" t="n">
-        <v>275.3502919318278</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M11" t="n">
-        <v>269.9301101891133</v>
+        <v>257.9362584875889</v>
       </c>
       <c r="N11" t="n">
-        <v>229.4130635965909</v>
+        <v>255.8883403615407</v>
       </c>
       <c r="O11" t="n">
-        <v>269.6820883835273</v>
+        <v>257.6882366820029</v>
       </c>
       <c r="P11" t="n">
         <v>231.2329957552695</v>
@@ -8772,22 +8772,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>176.5389081776</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M12" t="n">
-        <v>181.7179108838589</v>
+        <v>168.6093106869682</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>158.9317373436494</v>
       </c>
       <c r="O12" t="n">
-        <v>182.180121406285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>173.5582843761708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>167.5717993463377</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8854,10 +8854,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M13" t="n">
-        <v>178.5096609094456</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N13" t="n">
-        <v>167.2694214270738</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O13" t="n">
         <v>163.0416663658825</v>
@@ -8927,22 +8927,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>258.0743794427063</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L14" t="n">
         <v>275.3502919318278</v>
       </c>
       <c r="M14" t="n">
-        <v>269.9301101891133</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N14" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
-        <v>230.0982114216867</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P14" t="n">
-        <v>270.8168727171101</v>
+        <v>269.2175241529953</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,25 +9006,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>175.8259673720848</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>181.7179108838589</v>
+        <v>180.1185623197441</v>
       </c>
       <c r="N15" t="n">
         <v>170.9255890451739</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>182.180121406285</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q15" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9164,22 +9164,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>299.2244673300257</v>
+        <v>300.0878031123247</v>
       </c>
       <c r="L17" t="n">
-        <v>314.9010312550324</v>
+        <v>315.7643670373314</v>
       </c>
       <c r="M17" t="n">
-        <v>306.2834912785788</v>
+        <v>307.1119448070475</v>
       </c>
       <c r="N17" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O17" t="n">
-        <v>230.0982114216867</v>
+        <v>310.0961634890309</v>
       </c>
       <c r="P17" t="n">
-        <v>310.3676120403147</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9246,22 +9246,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>144.3961241813527</v>
+        <v>218.5523318472183</v>
       </c>
       <c r="M18" t="n">
-        <v>221.2686502070635</v>
+        <v>218.8997455017931</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>211.3396641506775</v>
       </c>
       <c r="O18" t="n">
-        <v>221.7308607294896</v>
+        <v>222.5941965117886</v>
       </c>
       <c r="P18" t="n">
-        <v>213.1090236993755</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9483,7 +9483,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>185.3423563661624</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
@@ -9495,7 +9495,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9720,22 +9720,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9957,7 +9957,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>243.2069195535496</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
@@ -9966,10 +9966,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>247.3552705420797</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10194,10 +10194,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>173.111405903722</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
@@ -10206,10 +10206,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10431,13 +10431,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10592,13 +10592,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>299.2808231091597</v>
+        <v>443.7704968446156</v>
       </c>
       <c r="N35" t="n">
-        <v>430.8434755124094</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>277.2978653650641</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10668,22 +10668,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>351.9786433972171</v>
       </c>
       <c r="M36" t="n">
-        <v>155.6485823383518</v>
+        <v>355.5582975393612</v>
       </c>
       <c r="N36" t="n">
-        <v>332.7721239991517</v>
+        <v>209.5189750920589</v>
       </c>
       <c r="O36" t="n">
-        <v>344.0266563602629</v>
+        <v>356.0205080617874</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10832,10 +10832,10 @@
         <v>431.7766451430912</v>
       </c>
       <c r="N38" t="n">
-        <v>298.3476534784779</v>
+        <v>430.8434755124094</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>248.3043592288139</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10905,10 +10905,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>222.1644418460354</v>
       </c>
       <c r="M39" t="n">
-        <v>155.6485823383518</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>332.7721239991517</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11063,16 +11063,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>397.6460875626011</v>
+        <v>396.7827517803021</v>
       </c>
       <c r="M41" t="n">
-        <v>364.1214143896335</v>
+        <v>391.3625700375876</v>
       </c>
       <c r="N41" t="n">
-        <v>229.4130635965909</v>
+        <v>350.3187526966287</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11139,22 +11139,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>300.4340523724881</v>
+        <v>299.570716590189</v>
       </c>
       <c r="M42" t="n">
-        <v>304.0137065146322</v>
+        <v>303.1503707323332</v>
       </c>
       <c r="N42" t="n">
-        <v>293.2213846759471</v>
+        <v>292.3580488936482</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>297.1068706765648</v>
       </c>
       <c r="P42" t="n">
-        <v>162.6896891366997</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -23264,22 +23264,22 @@
         <v>344.6923424061382</v>
       </c>
       <c r="E11" t="n">
-        <v>371.939670857717</v>
+        <v>344.3496455974008</v>
       </c>
       <c r="F11" t="n">
-        <v>362.0198676991774</v>
+        <v>396.8853465271666</v>
       </c>
       <c r="G11" t="n">
-        <v>365.7281613387497</v>
+        <v>405.3120383005902</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9002259393818</v>
+        <v>301.8940776409062</v>
       </c>
       <c r="I11" t="n">
-        <v>160.9013133940205</v>
+        <v>172.895165095545</v>
       </c>
       <c r="J11" t="n">
-        <v>1.958590140067713</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23303,7 +23303,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>139.8784187266049</v>
+        <v>117.5357146173861</v>
       </c>
       <c r="S11" t="n">
         <v>199.0293703717005</v>
@@ -23346,16 +23346,16 @@
         <v>147.6543812408561</v>
       </c>
       <c r="F12" t="n">
-        <v>100.2130343508499</v>
+        <v>135.0785131788391</v>
       </c>
       <c r="G12" t="n">
-        <v>87.76894098682524</v>
+        <v>127.3528179486658</v>
       </c>
       <c r="H12" t="n">
-        <v>62.66086806011107</v>
+        <v>102.2447450219517</v>
       </c>
       <c r="I12" t="n">
-        <v>39.82205667502969</v>
+        <v>79.40593363687027</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,16 +23382,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>90.16713493809833</v>
+        <v>65.86584068881189</v>
       </c>
       <c r="S12" t="n">
-        <v>161.692471889293</v>
+        <v>134.1024466289769</v>
       </c>
       <c r="T12" t="n">
-        <v>190.1740294802768</v>
+        <v>162.5840042199607</v>
       </c>
       <c r="U12" t="n">
-        <v>215.95068286643</v>
+        <v>188.3606576061139</v>
       </c>
       <c r="V12" t="n">
         <v>222.8098879348805</v>
@@ -23458,22 +23458,22 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>36.58746707530899</v>
+        <v>48.58131877683344</v>
       </c>
       <c r="R13" t="n">
-        <v>127.7188152007841</v>
+        <v>139.7126669023085</v>
       </c>
       <c r="S13" t="n">
-        <v>214.0258988224275</v>
+        <v>186.4358735621113</v>
       </c>
       <c r="T13" t="n">
-        <v>217.9548902137367</v>
+        <v>193.6535959644502</v>
       </c>
       <c r="U13" t="n">
-        <v>236.7444531801055</v>
+        <v>276.3283301419461</v>
       </c>
       <c r="V13" t="n">
-        <v>207.281465281294</v>
+        <v>242.1469441092832</v>
       </c>
       <c r="W13" t="n">
         <v>276.5322991220462</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>348.9937021714796</v>
+        <v>348.423958692252</v>
       </c>
       <c r="C14" t="n">
-        <v>331.5327522790066</v>
+        <v>330.9630087997789</v>
       </c>
       <c r="D14" t="n">
-        <v>320.942902128682</v>
+        <v>320.3731586494544</v>
       </c>
       <c r="E14" t="n">
-        <v>308.6063536184202</v>
+        <v>347.6204871010332</v>
       </c>
       <c r="F14" t="n">
-        <v>333.5520292878699</v>
+        <v>332.9822858086422</v>
       </c>
       <c r="G14" t="n">
-        <v>341.9787210612935</v>
+        <v>341.4089775820659</v>
       </c>
       <c r="H14" t="n">
-        <v>270.869183795777</v>
+        <v>265.581042182698</v>
       </c>
       <c r="I14" t="n">
-        <v>176.7357500784049</v>
+        <v>176.1660065991773</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23540,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>116.1289784491487</v>
+        <v>80.69375614193191</v>
       </c>
       <c r="S14" t="n">
-        <v>175.2799300942443</v>
+        <v>174.7101866150167</v>
       </c>
       <c r="T14" t="n">
-        <v>189.3557100721304</v>
+        <v>188.7859665929028</v>
       </c>
       <c r="U14" t="n">
-        <v>217.6055134158355</v>
+        <v>217.0357699366079</v>
       </c>
       <c r="V14" t="n">
-        <v>294.0121189781339</v>
+        <v>293.4423754989063</v>
       </c>
       <c r="W14" t="n">
-        <v>315.500829225412</v>
+        <v>314.9310857461844</v>
       </c>
       <c r="X14" t="n">
-        <v>335.990961186468</v>
+        <v>335.4212177072404</v>
       </c>
       <c r="Y14" t="n">
-        <v>352.4977991640526</v>
+        <v>351.928055684825</v>
       </c>
     </row>
     <row r="15">
@@ -23571,28 +23571,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>132.7930441578663</v>
+        <v>132.2233006786387</v>
       </c>
       <c r="C15" t="n">
-        <v>138.9683594963147</v>
+        <v>138.3986160170871</v>
       </c>
       <c r="D15" t="n">
-        <v>113.7049260726378</v>
+        <v>113.1351825934101</v>
       </c>
       <c r="E15" t="n">
-        <v>84.32106400155936</v>
+        <v>123.3351974841723</v>
       </c>
       <c r="F15" t="n">
-        <v>71.7451959395423</v>
+        <v>75.89385059416611</v>
       </c>
       <c r="G15" t="n">
-        <v>103.6033776712096</v>
+        <v>63.44975723014145</v>
       </c>
       <c r="H15" t="n">
-        <v>78.49530474449546</v>
+        <v>38.34168430342728</v>
       </c>
       <c r="I15" t="n">
-        <v>20.79101453142491</v>
+        <v>15.50287291834589</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,28 +23619,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>66.41769466064213</v>
+        <v>65.84795118141454</v>
       </c>
       <c r="S15" t="n">
-        <v>137.9430316118368</v>
+        <v>137.3732881326092</v>
       </c>
       <c r="T15" t="n">
-        <v>126.84071224098</v>
+        <v>165.854845723593</v>
       </c>
       <c r="U15" t="n">
-        <v>192.2012425889738</v>
+        <v>191.6314991097462</v>
       </c>
       <c r="V15" t="n">
-        <v>199.0604476574243</v>
+        <v>198.4907041781967</v>
       </c>
       <c r="W15" t="n">
-        <v>217.9548436689186</v>
+        <v>217.385100189691</v>
       </c>
       <c r="X15" t="n">
-        <v>172.0328457114765</v>
+        <v>171.4631022322489</v>
       </c>
       <c r="Y15" t="n">
-        <v>171.9425562853034</v>
+        <v>171.3728128060758</v>
       </c>
     </row>
     <row r="16">
@@ -23650,31 +23650,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>146.0918406899363</v>
+        <v>145.5220972107087</v>
       </c>
       <c r="C16" t="n">
-        <v>133.5066816066268</v>
+        <v>132.9369381273992</v>
       </c>
       <c r="D16" t="n">
-        <v>114.8753335262114</v>
+        <v>114.3055900469838</v>
       </c>
       <c r="E16" t="n">
-        <v>112.6938231545682</v>
+        <v>112.1240796753406</v>
       </c>
       <c r="F16" t="n">
-        <v>111.6809085309303</v>
+        <v>111.1111650517026</v>
       </c>
       <c r="G16" t="n">
-        <v>134.2508398664578</v>
+        <v>133.6810963872302</v>
       </c>
       <c r="H16" t="n">
-        <v>128.4870330154386</v>
+        <v>127.917289536211</v>
       </c>
       <c r="I16" t="n">
-        <v>121.7103354352573</v>
+        <v>121.1405919560297</v>
       </c>
       <c r="J16" t="n">
-        <v>20.03516366283119</v>
+        <v>59.04929714544418</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,31 +23695,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>52.42190375969339</v>
+        <v>12.2682833186252</v>
       </c>
       <c r="R16" t="n">
-        <v>108.6877730571793</v>
+        <v>103.3996314441003</v>
       </c>
       <c r="S16" t="n">
-        <v>150.6925815831307</v>
+        <v>150.1228381039031</v>
       </c>
       <c r="T16" t="n">
-        <v>154.6215729744399</v>
+        <v>158.7702276290637</v>
       </c>
       <c r="U16" t="n">
-        <v>252.5788898644899</v>
+        <v>252.0091463852623</v>
       </c>
       <c r="V16" t="n">
-        <v>218.397503831827</v>
+        <v>217.8277603525994</v>
       </c>
       <c r="W16" t="n">
-        <v>252.78285884459</v>
+        <v>252.2131153653624</v>
       </c>
       <c r="X16" t="n">
-        <v>191.9695158970362</v>
+        <v>191.3997724178085</v>
       </c>
       <c r="Y16" t="n">
-        <v>184.8445138600938</v>
+        <v>184.2747703808662</v>
       </c>
     </row>
     <row r="17">
@@ -23729,28 +23729,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>348.9937021714796</v>
+        <v>348.423958692252</v>
       </c>
       <c r="C17" t="n">
-        <v>331.5327522790066</v>
+        <v>330.9630087997789</v>
       </c>
       <c r="D17" t="n">
-        <v>241.8082858436368</v>
+        <v>320.3731586494544</v>
       </c>
       <c r="E17" t="n">
-        <v>269.0556142952156</v>
+        <v>347.6204871010332</v>
       </c>
       <c r="F17" t="n">
-        <v>294.0012899646653</v>
+        <v>372.5661627704828</v>
       </c>
       <c r="G17" t="n">
-        <v>311.8608279992662</v>
+        <v>380.9928545439064</v>
       </c>
       <c r="H17" t="n">
-        <v>305.7346626237662</v>
+        <v>305.1649191445385</v>
       </c>
       <c r="I17" t="n">
-        <v>176.7357500784049</v>
+        <v>176.1660065991773</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,28 +23777,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>116.1289784491487</v>
+        <v>35.56128290257691</v>
       </c>
       <c r="S17" t="n">
-        <v>175.2799300942443</v>
+        <v>94.71223454767257</v>
       </c>
       <c r="T17" t="n">
-        <v>189.3557100721304</v>
+        <v>108.7880145255586</v>
       </c>
       <c r="U17" t="n">
-        <v>217.6055134158355</v>
+        <v>146.5735737556911</v>
       </c>
       <c r="V17" t="n">
-        <v>294.0121189781339</v>
+        <v>293.4423754989063</v>
       </c>
       <c r="W17" t="n">
-        <v>315.500829225412</v>
+        <v>314.9310857461844</v>
       </c>
       <c r="X17" t="n">
-        <v>335.990961186468</v>
+        <v>335.4212177072404</v>
       </c>
       <c r="Y17" t="n">
-        <v>352.4977991640526</v>
+        <v>351.928055684825</v>
       </c>
     </row>
     <row r="18">
@@ -23808,28 +23808,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>132.7930441578663</v>
+        <v>132.2233006786387</v>
       </c>
       <c r="C18" t="n">
-        <v>138.9683594963147</v>
+        <v>138.3986160170871</v>
       </c>
       <c r="D18" t="n">
-        <v>34.57030978759255</v>
+        <v>113.1351825934101</v>
       </c>
       <c r="E18" t="n">
-        <v>123.9049409634</v>
+        <v>123.3351974841723</v>
       </c>
       <c r="F18" t="n">
-        <v>32.19445661633767</v>
+        <v>110.7593294221553</v>
       </c>
       <c r="G18" t="n">
-        <v>33.90160764734185</v>
+        <v>23.03568212463786</v>
       </c>
       <c r="H18" t="n">
-        <v>78.49530474449546</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>55.65649335941408</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,28 +23856,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>66.41769466064213</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>137.9430316118368</v>
+        <v>137.3732881326092</v>
       </c>
       <c r="T18" t="n">
-        <v>166.4245892028206</v>
+        <v>165.854845723593</v>
       </c>
       <c r="U18" t="n">
-        <v>192.2012425889738</v>
+        <v>160.0336611210101</v>
       </c>
       <c r="V18" t="n">
-        <v>199.0604476574243</v>
+        <v>198.4907041781967</v>
       </c>
       <c r="W18" t="n">
-        <v>138.8202273838734</v>
+        <v>217.385100189691</v>
       </c>
       <c r="X18" t="n">
-        <v>172.0328457114765</v>
+        <v>171.4631022322489</v>
       </c>
       <c r="Y18" t="n">
-        <v>171.9425562853034</v>
+        <v>171.3728128060758</v>
       </c>
     </row>
     <row r="19">
@@ -23887,31 +23887,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>146.0918406899363</v>
+        <v>65.52414514336452</v>
       </c>
       <c r="C19" t="n">
-        <v>116.2268153424525</v>
+        <v>132.9369381273992</v>
       </c>
       <c r="D19" t="n">
-        <v>114.8753335262114</v>
+        <v>34.30763797963958</v>
       </c>
       <c r="E19" t="n">
-        <v>112.6938231545682</v>
+        <v>32.12612760799639</v>
       </c>
       <c r="F19" t="n">
-        <v>32.54629224588504</v>
+        <v>111.1111650517026</v>
       </c>
       <c r="G19" t="n">
-        <v>134.2508398664578</v>
+        <v>133.6810963872302</v>
       </c>
       <c r="H19" t="n">
-        <v>128.4870330154386</v>
+        <v>127.917289536211</v>
       </c>
       <c r="I19" t="n">
-        <v>42.57571915021208</v>
+        <v>121.1405919560297</v>
       </c>
       <c r="J19" t="n">
-        <v>59.61904062467178</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,31 +23932,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>51.85216028046579</v>
       </c>
       <c r="R19" t="n">
-        <v>143.5532518851685</v>
+        <v>142.9835084059409</v>
       </c>
       <c r="S19" t="n">
-        <v>190.2764585449713</v>
+        <v>189.7067150657437</v>
       </c>
       <c r="T19" t="n">
-        <v>194.2054499362805</v>
+        <v>193.6357064570529</v>
       </c>
       <c r="U19" t="n">
-        <v>173.4442735794447</v>
+        <v>252.0091463852623</v>
       </c>
       <c r="V19" t="n">
-        <v>218.397503831827</v>
+        <v>217.8277603525994</v>
       </c>
       <c r="W19" t="n">
-        <v>252.78285884459</v>
+        <v>252.2131153653624</v>
       </c>
       <c r="X19" t="n">
-        <v>191.9695158970362</v>
+        <v>191.3997724178085</v>
       </c>
       <c r="Y19" t="n">
-        <v>184.8445138600938</v>
+        <v>172.8618713453936</v>
       </c>
     </row>
     <row r="20">
@@ -23966,28 +23966,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>334.9087025464951</v>
+        <v>334.3389590672675</v>
       </c>
       <c r="C20" t="n">
-        <v>317.4477526540221</v>
+        <v>316.8780091747944</v>
       </c>
       <c r="D20" t="n">
-        <v>306.8579025036975</v>
+        <v>150.2511198952836</v>
       </c>
       <c r="E20" t="n">
-        <v>334.1052309552763</v>
+        <v>333.5354874760487</v>
       </c>
       <c r="F20" t="n">
-        <v>118.0366177470669</v>
+        <v>358.4811631454983</v>
       </c>
       <c r="G20" t="n">
-        <v>367.4775983981496</v>
+        <v>366.9078549189219</v>
       </c>
       <c r="H20" t="n">
-        <v>291.6496629987817</v>
+        <v>291.079919519554</v>
       </c>
       <c r="I20" t="n">
-        <v>162.6507504534204</v>
+        <v>162.0810069741928</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,28 +24014,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>102.0439788241642</v>
+        <v>101.4742353449366</v>
       </c>
       <c r="S20" t="n">
-        <v>161.1949304692598</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>175.2707104471459</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>203.520513790851</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>67.64173370970741</v>
+        <v>279.3573758739218</v>
       </c>
       <c r="W20" t="n">
-        <v>60.40154072276846</v>
+        <v>59.83179724354085</v>
       </c>
       <c r="X20" t="n">
-        <v>80.89167268382448</v>
+        <v>321.3362180822559</v>
       </c>
       <c r="Y20" t="n">
-        <v>338.4127995390681</v>
+        <v>337.8430560598405</v>
       </c>
     </row>
     <row r="21">
@@ -24051,22 +24051,22 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>99.05018296842564</v>
       </c>
       <c r="E21" t="n">
-        <v>109.8199413384154</v>
+        <v>109.2501978591878</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>96.67432979717077</v>
       </c>
       <c r="G21" t="n">
-        <v>89.51837804622514</v>
+        <v>88.94863456699753</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>63.84056164028335</v>
       </c>
       <c r="I21" t="n">
-        <v>41.57149373442957</v>
+        <v>41.00175025520196</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,25 +24093,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>52.33269503565763</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>123.8580319868523</v>
+        <v>123.2882885076247</v>
       </c>
       <c r="T21" t="n">
-        <v>64.71005124195017</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>178.1162429639893</v>
+        <v>177.5464994847617</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>55.65008112338603</v>
       </c>
       <c r="W21" t="n">
-        <v>203.8698440439341</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>157.947846086492</v>
+        <v>157.3781026072644</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24124,31 +24124,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>132.0068410649518</v>
+        <v>131.4370975857242</v>
       </c>
       <c r="C22" t="n">
-        <v>119.4216819816423</v>
+        <v>118.8519385024147</v>
       </c>
       <c r="D22" t="n">
-        <v>100.7903339012269</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>98.60882352958367</v>
+        <v>98.03908005035606</v>
       </c>
       <c r="F22" t="n">
-        <v>97.59590890594575</v>
+        <v>97.02616542671814</v>
       </c>
       <c r="G22" t="n">
-        <v>120.1658402414733</v>
+        <v>119.5960967622457</v>
       </c>
       <c r="H22" t="n">
-        <v>114.4020333904541</v>
+        <v>113.8322899112265</v>
       </c>
       <c r="I22" t="n">
-        <v>107.6253358102728</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.53404099968727</v>
+        <v>44.96429752045966</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,28 +24169,28 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>38.33690413470888</v>
+        <v>37.76716065548127</v>
       </c>
       <c r="R22" t="n">
-        <v>129.468252260184</v>
+        <v>128.8985087809564</v>
       </c>
       <c r="S22" t="n">
-        <v>176.1914589199868</v>
+        <v>175.6217154407591</v>
       </c>
       <c r="T22" t="n">
-        <v>180.120450311296</v>
+        <v>179.5507068320684</v>
       </c>
       <c r="U22" t="n">
-        <v>238.4938902395054</v>
+        <v>237.9241467602778</v>
       </c>
       <c r="V22" t="n">
-        <v>163.0226670403162</v>
+        <v>187.9244130589079</v>
       </c>
       <c r="W22" t="n">
-        <v>238.6978592196055</v>
+        <v>238.1281157403779</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>177.314772792824</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24203,28 +24203,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>334.9087025464951</v>
+        <v>325.0043437354487</v>
       </c>
       <c r="C23" t="n">
-        <v>317.4477526540221</v>
+        <v>316.8780091747944</v>
       </c>
       <c r="D23" t="n">
-        <v>306.8579025036975</v>
+        <v>306.2881590244698</v>
       </c>
       <c r="E23" t="n">
-        <v>334.1052309552763</v>
+        <v>333.5354874760487</v>
       </c>
       <c r="F23" t="n">
-        <v>359.0509066247259</v>
+        <v>358.4811631454983</v>
       </c>
       <c r="G23" t="n">
-        <v>367.4775983981496</v>
+        <v>366.9078549189219</v>
       </c>
       <c r="H23" t="n">
-        <v>291.6496629987817</v>
+        <v>291.079919519554</v>
       </c>
       <c r="I23" t="n">
-        <v>162.6507504534204</v>
+        <v>162.0810069741928</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,28 +24251,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>102.0439788241642</v>
+        <v>101.4742353449366</v>
       </c>
       <c r="S23" t="n">
-        <v>161.1949304692598</v>
+        <v>160.6251869900322</v>
       </c>
       <c r="T23" t="n">
-        <v>175.2707104471459</v>
+        <v>174.7009669679182</v>
       </c>
       <c r="U23" t="n">
-        <v>203.520513790851</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>67.64173370970741</v>
+        <v>38.34308699626274</v>
       </c>
       <c r="W23" t="n">
-        <v>60.40154072276846</v>
+        <v>59.83179724354085</v>
       </c>
       <c r="X23" t="n">
-        <v>80.89167268382448</v>
+        <v>80.32192920459687</v>
       </c>
       <c r="Y23" t="n">
-        <v>97.39851066140903</v>
+        <v>337.8430560598405</v>
       </c>
     </row>
     <row r="24">
@@ -24282,10 +24282,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>118.7080445328818</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>124.8833598713302</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -24294,16 +24294,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>97.24407327639838</v>
+        <v>96.67432979717077</v>
       </c>
       <c r="G24" t="n">
-        <v>89.51837804622514</v>
+        <v>88.94863456699753</v>
       </c>
       <c r="H24" t="n">
-        <v>64.41030511951095</v>
+        <v>63.84056164028335</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>41.00175025520196</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,25 +24330,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>52.33269503565763</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>5.141201849361465</v>
       </c>
       <c r="T24" t="n">
-        <v>152.3395895778361</v>
+        <v>151.7698460986085</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>177.5464994847617</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>184.4057045532122</v>
       </c>
       <c r="W24" t="n">
-        <v>164.3602329316135</v>
+        <v>203.3001005647065</v>
       </c>
       <c r="X24" t="n">
-        <v>157.947846086492</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24361,31 +24361,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>132.0068410649518</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>119.4216819816423</v>
+        <v>118.8519385024147</v>
       </c>
       <c r="D25" t="n">
-        <v>100.7903339012269</v>
+        <v>100.2205904219992</v>
       </c>
       <c r="E25" t="n">
-        <v>97.19621923842479</v>
+        <v>98.03908005035606</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>97.02616542671814</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>119.5960967622457</v>
       </c>
       <c r="H25" t="n">
-        <v>114.4020333904541</v>
+        <v>113.8322899112265</v>
       </c>
       <c r="I25" t="n">
-        <v>107.6253358102728</v>
+        <v>107.0555923310452</v>
       </c>
       <c r="J25" t="n">
-        <v>45.53404099968727</v>
+        <v>44.96429752045966</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,31 +24406,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>38.33690413470888</v>
+        <v>37.76716065548127</v>
       </c>
       <c r="R25" t="n">
-        <v>129.468252260184</v>
+        <v>128.8985087809564</v>
       </c>
       <c r="S25" t="n">
-        <v>176.1914589199868</v>
+        <v>175.6217154407591</v>
       </c>
       <c r="T25" t="n">
-        <v>180.120450311296</v>
+        <v>179.5507068320684</v>
       </c>
       <c r="U25" t="n">
-        <v>238.4938902395054</v>
+        <v>237.9241467602778</v>
       </c>
       <c r="V25" t="n">
-        <v>204.3125042068425</v>
+        <v>180.0236728760839</v>
       </c>
       <c r="W25" t="n">
-        <v>238.6978592196055</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>177.8845162720517</v>
+        <v>177.314772792824</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>170.1897707558817</v>
       </c>
     </row>
     <row r="26">
@@ -24440,28 +24440,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>91.76154599297899</v>
+        <v>331.7177398377868</v>
       </c>
       <c r="C26" t="n">
-        <v>315.314884978165</v>
+        <v>314.2567899453138</v>
       </c>
       <c r="D26" t="n">
-        <v>304.7250348278404</v>
+        <v>62.65265091733011</v>
       </c>
       <c r="E26" t="n">
-        <v>331.9723632794193</v>
+        <v>330.914268246568</v>
       </c>
       <c r="F26" t="n">
-        <v>356.9180389488689</v>
+        <v>355.8599439160176</v>
       </c>
       <c r="G26" t="n">
-        <v>365.3447307222925</v>
+        <v>364.2866356894413</v>
       </c>
       <c r="H26" t="n">
-        <v>289.5167953229246</v>
+        <v>47.4444114124143</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>159.4597877447121</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,28 +24488,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>99.91111114830719</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>39.41811382115404</v>
+        <v>44.57159823256546</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>172.0797477384376</v>
       </c>
       <c r="U26" t="n">
-        <v>201.387646114994</v>
+        <v>200.3295510821427</v>
       </c>
       <c r="V26" t="n">
-        <v>277.7942516772924</v>
+        <v>276.7361566444411</v>
       </c>
       <c r="W26" t="n">
-        <v>299.2829619245705</v>
+        <v>298.2248668917192</v>
       </c>
       <c r="X26" t="n">
-        <v>319.7730938856265</v>
+        <v>77.70070997511618</v>
       </c>
       <c r="Y26" t="n">
-        <v>95.26564298555201</v>
+        <v>335.2218368303598</v>
       </c>
     </row>
     <row r="27">
@@ -24522,25 +24522,25 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>121.692397162622</v>
       </c>
       <c r="D27" t="n">
-        <v>66.33213150520439</v>
+        <v>96.42896373894497</v>
       </c>
       <c r="E27" t="n">
-        <v>107.6870736625584</v>
+        <v>106.6289786297072</v>
       </c>
       <c r="F27" t="n">
-        <v>95.11120560054138</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>87.38551037036814</v>
+        <v>86.32741533751685</v>
       </c>
       <c r="H27" t="n">
-        <v>62.27743744365396</v>
+        <v>61.21934241080268</v>
       </c>
       <c r="I27" t="n">
-        <v>39.43862605857257</v>
+        <v>38.3805310257213</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,28 +24567,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>50.19982735980063</v>
+        <v>49.14173232694935</v>
       </c>
       <c r="S27" t="n">
-        <v>121.7251643109953</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>174.9252802552811</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>201.7369763680771</v>
+        <v>200.6788813352258</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>35.26559891584202</v>
       </c>
       <c r="Y27" t="n">
-        <v>155.7246889844619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24598,31 +24598,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>129.8739733890948</v>
+        <v>128.8158783562435</v>
       </c>
       <c r="C28" t="n">
-        <v>117.2888143057853</v>
+        <v>116.2307192729341</v>
       </c>
       <c r="D28" t="n">
-        <v>6.153026546469619</v>
+        <v>97.59937119251857</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>95.41786082087539</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>94.40494619723746</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>116.974877532765</v>
       </c>
       <c r="H28" t="n">
-        <v>112.2691657145971</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>105.4924681344158</v>
+        <v>104.4343731015645</v>
       </c>
       <c r="J28" t="n">
-        <v>43.40117332383027</v>
+        <v>42.34307829097899</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,31 +24643,31 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>36.20403645885188</v>
+        <v>35.1459414260006</v>
       </c>
       <c r="R28" t="n">
-        <v>127.335384584327</v>
+        <v>126.2772895514757</v>
       </c>
       <c r="S28" t="n">
-        <v>174.0585912441298</v>
+        <v>173.0004962112785</v>
       </c>
       <c r="T28" t="n">
-        <v>177.987582635439</v>
+        <v>176.9294876025877</v>
       </c>
       <c r="U28" t="n">
-        <v>236.3610225636484</v>
+        <v>235.3029275307971</v>
       </c>
       <c r="V28" t="n">
-        <v>202.1796365309855</v>
+        <v>201.1215414981342</v>
       </c>
       <c r="W28" t="n">
-        <v>236.5649915437485</v>
+        <v>112.712877777469</v>
       </c>
       <c r="X28" t="n">
-        <v>175.7516485961947</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>168.6266465592523</v>
+        <v>167.568551526401</v>
       </c>
     </row>
     <row r="29">
@@ -24677,22 +24677,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>123.4779938658767</v>
+        <v>268.4910078858529</v>
       </c>
       <c r="C29" t="n">
         <v>251.0300579933799</v>
       </c>
       <c r="D29" t="n">
-        <v>240.4402078430553</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>267.6875362946341</v>
+        <v>26.67324741697507</v>
       </c>
       <c r="F29" t="n">
         <v>292.6332119640838</v>
       </c>
       <c r="G29" t="n">
-        <v>301.0599037375074</v>
+        <v>82.18428312158792</v>
       </c>
       <c r="H29" t="n">
         <v>225.2319683381395</v>
@@ -24728,7 +24728,7 @@
         <v>35.62628416352204</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>94.7772358086177</v>
       </c>
       <c r="T29" t="n">
         <v>108.8530157865037</v>
@@ -24737,16 +24737,16 @@
         <v>137.1028191302088</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>213.5094246925073</v>
       </c>
       <c r="W29" t="n">
-        <v>234.9981349397854</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>14.47397802318233</v>
+        <v>255.4882669008414</v>
       </c>
       <c r="Y29" t="n">
-        <v>30.98081600076688</v>
+        <v>271.9951048784259</v>
       </c>
     </row>
     <row r="30">
@@ -24856,7 +24856,7 @@
         <v>47.98433872981194</v>
       </c>
       <c r="I31" t="n">
-        <v>29.90233771243714</v>
+        <v>41.20764114963065</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>93.03651613727372</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>104.3418195744672</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24923,19 +24923,19 @@
         <v>240.4402078430553</v>
       </c>
       <c r="E32" t="n">
-        <v>26.67324741697507</v>
+        <v>267.6875362946341</v>
       </c>
       <c r="F32" t="n">
-        <v>51.61892308642473</v>
+        <v>160.7985615739004</v>
       </c>
       <c r="G32" t="n">
-        <v>301.0599037375074</v>
+        <v>60.04561485984834</v>
       </c>
       <c r="H32" t="n">
-        <v>6.930428756823744</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>96.23305579277827</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,10 +24962,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>35.62628416352204</v>
+        <v>35.62628416352203</v>
       </c>
       <c r="S32" t="n">
-        <v>94.7772358086177</v>
+        <v>94.77723580861769</v>
       </c>
       <c r="T32" t="n">
         <v>108.8530157865037</v>
@@ -24977,10 +24977,10 @@
         <v>213.5094246925073</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>234.9981349397854</v>
       </c>
       <c r="X32" t="n">
-        <v>255.4882669008414</v>
+        <v>14.47397802318233</v>
       </c>
       <c r="Y32" t="n">
         <v>271.9951048784259</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>65.58914640430964</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>53.00398732100018</v>
       </c>
       <c r="D34" t="n">
-        <v>34.37263924058472</v>
+        <v>34.3726392405847</v>
       </c>
       <c r="E34" t="n">
-        <v>32.19112886894153</v>
+        <v>32.19112886894152</v>
       </c>
       <c r="F34" t="n">
-        <v>31.17821424530361</v>
+        <v>31.17821424530359</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>53.74814558083111</v>
       </c>
       <c r="H34" t="n">
-        <v>47.98433872981194</v>
+        <v>47.98433872981192</v>
       </c>
       <c r="I34" t="n">
-        <v>34.69265267117916</v>
+        <v>41.20764114963063</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,13 +25123,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>109.7737642593446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>113.7027556506539</v>
+        <v>113.7027556506538</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>42.38431808616127</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>111.4668216114095</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25151,25 +25151,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>282.5760075108374</v>
+        <v>69.15174389349451</v>
       </c>
       <c r="C35" t="n">
-        <v>265.1150576183644</v>
+        <v>51.69079400102149</v>
       </c>
       <c r="D35" t="n">
         <v>254.5252074680398</v>
       </c>
       <c r="E35" t="n">
-        <v>281.7725359196186</v>
+        <v>244.9762632806564</v>
       </c>
       <c r="F35" t="n">
         <v>306.7182115890683</v>
       </c>
       <c r="G35" t="n">
-        <v>137.724996547039</v>
+        <v>315.1449033624919</v>
       </c>
       <c r="H35" t="n">
-        <v>37.88655604730553</v>
+        <v>239.316967963124</v>
       </c>
       <c r="I35" t="n">
         <v>110.3180554177628</v>
@@ -25208,7 +25208,7 @@
         <v>122.9380154114882</v>
       </c>
       <c r="U35" t="n">
-        <v>151.1878187551933</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>227.5944243174918</v>
@@ -25217,10 +25217,10 @@
         <v>249.0831345647699</v>
       </c>
       <c r="X35" t="n">
-        <v>68.14285461000742</v>
+        <v>269.5732665258259</v>
       </c>
       <c r="Y35" t="n">
-        <v>84.64969258759197</v>
+        <v>72.65584088606752</v>
       </c>
     </row>
     <row r="36">
@@ -25233,22 +25233,22 @@
         <v>66.37534949722421</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>72.55066483567261</v>
       </c>
       <c r="D36" t="n">
-        <v>47.28723141199562</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>57.48724630275781</v>
       </c>
       <c r="F36" t="n">
-        <v>44.91137824074075</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>37.1856830105675</v>
+        <v>34.31537765203717</v>
       </c>
       <c r="H36" t="n">
-        <v>12.07761008385333</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25281,7 +25281,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>71.52533695119469</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25290,13 +25290,13 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>132.6427529967821</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>8.319709680999182</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>79.67414602929416</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>67.0889869459847</v>
@@ -25324,10 +25324,10 @@
         <v>45.26321387028811</v>
       </c>
       <c r="G37" t="n">
-        <v>13.48205976106896</v>
+        <v>67.83314520581563</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>62.06933835479644</v>
       </c>
       <c r="I37" t="n">
         <v>55.29264077461515</v>
@@ -25357,16 +25357,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>23.30710150099331</v>
       </c>
       <c r="S37" t="n">
         <v>123.8587638843291</v>
       </c>
       <c r="T37" t="n">
-        <v>127.7877552756384</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>186.1611952038477</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>125.551821236394</v>
       </c>
       <c r="Y37" t="n">
-        <v>118.4268191994517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25388,7 +25388,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>81.14559559501896</v>
+        <v>282.5760075108374</v>
       </c>
       <c r="C38" t="n">
         <v>265.1150576183644</v>
@@ -25397,16 +25397,16 @@
         <v>254.5252074680398</v>
       </c>
       <c r="E38" t="n">
-        <v>281.7725359196186</v>
+        <v>80.34212400380017</v>
       </c>
       <c r="F38" t="n">
-        <v>306.7182115890683</v>
+        <v>129.2983047736154</v>
       </c>
       <c r="G38" t="n">
         <v>113.7144914466734</v>
       </c>
       <c r="H38" t="n">
-        <v>61.89706114767108</v>
+        <v>37.88655604730553</v>
       </c>
       <c r="I38" t="n">
         <v>110.3180554177628</v>
@@ -25457,7 +25457,7 @@
         <v>269.5732665258259</v>
       </c>
       <c r="Y38" t="n">
-        <v>84.64969258759197</v>
+        <v>286.0801045034104</v>
       </c>
     </row>
     <row r="39">
@@ -25467,7 +25467,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>66.37534949722421</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -25476,16 +25476,16 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>57.48724630275781</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>27.62823424265417</v>
       </c>
       <c r="G39" t="n">
-        <v>37.1856830105675</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>12.07761008385333</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25518,7 +25518,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>71.52533695119469</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25527,10 +25527,10 @@
         <v>125.7835479283317</v>
       </c>
       <c r="V39" t="n">
-        <v>132.6427529967821</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>41.11012090262804</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25561,7 +25561,7 @@
         <v>45.26321387028811</v>
       </c>
       <c r="G40" t="n">
-        <v>59.67839570928234</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>62.06933835479644</v>
@@ -25594,28 +25594,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>77.13555722452635</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>123.8587638843291</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>127.7877552756384</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>186.1611952038477</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>186.3651641839479</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>9.230166638270532</v>
       </c>
     </row>
     <row r="41">
@@ -25625,28 +25625,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>132.8199018086254</v>
+        <v>295.1879259548629</v>
       </c>
       <c r="C41" t="n">
-        <v>277.2386245087662</v>
+        <v>277.7269760623899</v>
       </c>
       <c r="D41" t="n">
-        <v>266.6487743584416</v>
+        <v>106.1207891017505</v>
       </c>
       <c r="E41" t="n">
-        <v>293.8961028100205</v>
+        <v>152.5612649011188</v>
       </c>
       <c r="F41" t="n">
-        <v>318.8417784794701</v>
+        <v>158.3137932227789</v>
       </c>
       <c r="G41" t="n">
-        <v>165.3887976602799</v>
+        <v>166.7404849962026</v>
       </c>
       <c r="H41" t="n">
-        <v>89.56086226091199</v>
+        <v>251.9288864071495</v>
       </c>
       <c r="I41" t="n">
-        <v>122.4416223081646</v>
+        <v>122.9299738617882</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,28 +25673,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>61.83485067890835</v>
+        <v>62.32320223253201</v>
       </c>
       <c r="S41" t="n">
-        <v>120.985802324004</v>
+        <v>121.4741538776277</v>
       </c>
       <c r="T41" t="n">
-        <v>135.06158230189</v>
+        <v>135.5499338555137</v>
       </c>
       <c r="U41" t="n">
-        <v>20.72777002602092</v>
+        <v>163.7997371992188</v>
       </c>
       <c r="V41" t="n">
-        <v>239.7179912078936</v>
+        <v>240.2063427615172</v>
       </c>
       <c r="W41" t="n">
-        <v>261.2067014551717</v>
+        <v>261.6950530087954</v>
       </c>
       <c r="X41" t="n">
-        <v>281.6968334162277</v>
+        <v>282.1851849698514</v>
       </c>
       <c r="Y41" t="n">
-        <v>298.2036713938123</v>
+        <v>298.6920229474359</v>
       </c>
     </row>
     <row r="42">
@@ -25704,28 +25704,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>78.49891638762601</v>
+        <v>78.98726794124967</v>
       </c>
       <c r="C42" t="n">
-        <v>84.67423172607441</v>
+        <v>85.16258327969807</v>
       </c>
       <c r="D42" t="n">
-        <v>59.41079830239742</v>
+        <v>59.89914985602108</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>70.09916474678327</v>
       </c>
       <c r="F42" t="n">
-        <v>57.03494513114255</v>
+        <v>57.52329668476621</v>
       </c>
       <c r="G42" t="n">
-        <v>49.30924990096931</v>
+        <v>49.79760145459296</v>
       </c>
       <c r="H42" t="n">
-        <v>24.20117697425513</v>
+        <v>24.68952852787879</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.850717142797407</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,10 +25752,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>12.61191844402546</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>84.13725539522015</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25767,13 +25767,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>96.98762815409188</v>
+        <v>3.132730641987109</v>
       </c>
       <c r="X42" t="n">
-        <v>117.7387179412361</v>
+        <v>50.64015721107354</v>
       </c>
       <c r="Y42" t="n">
-        <v>117.648428515063</v>
+        <v>118.1367800686867</v>
       </c>
     </row>
     <row r="43">
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>91.79771291969597</v>
+        <v>92.28606447331963</v>
       </c>
       <c r="C43" t="n">
-        <v>79.2125538363865</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>60.58120575597103</v>
+        <v>61.06955730959469</v>
       </c>
       <c r="E43" t="n">
-        <v>58.39969538432784</v>
+        <v>58.8880469379515</v>
       </c>
       <c r="F43" t="n">
-        <v>57.38678076068992</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>79.95671209621743</v>
+        <v>80.44506364984109</v>
       </c>
       <c r="H43" t="n">
-        <v>74.19290524519825</v>
+        <v>74.68125679882191</v>
       </c>
       <c r="I43" t="n">
-        <v>67.41620766501696</v>
+        <v>67.90455921864061</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,28 +25831,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>89.25912411492816</v>
+        <v>89.74747566855181</v>
       </c>
       <c r="S43" t="n">
-        <v>135.9823307747309</v>
+        <v>136.4706823283546</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>36.40508950163573</v>
+        <v>198.7731136478732</v>
       </c>
       <c r="V43" t="n">
-        <v>142.5517109966661</v>
+        <v>3.575390804895505</v>
       </c>
       <c r="W43" t="n">
-        <v>36.60905848173584</v>
+        <v>157.0739350572805</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>130.5503860898535</v>
+        <v>131.0387376434771</v>
       </c>
     </row>
     <row r="44">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>262645.4359889862</v>
+        <v>255797.0420851692</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>305447.381303444</v>
+        <v>306466.0826443029</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>327538.4877995783</v>
+        <v>329038.7509714877</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>433200.5617356328</v>
+        <v>434279.5708795628</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>433200.5617356328</v>
+        <v>434279.5708795628</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>437239.894889849</v>
+        <v>439243.7690142902</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>557666.3796740017</v>
+        <v>557666.3796740018</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>512646.7596407744</v>
+        <v>518499.0113878322</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>512646.7596407742</v>
+        <v>512646.7596407743</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>470737.2223460477</v>
+        <v>469391.2782650833</v>
       </c>
     </row>
     <row r="16">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>819276.3387170387</v>
+        <v>819276.3387170383</v>
       </c>
       <c r="C2" t="n">
-        <v>819276.3387170383</v>
+        <v>819276.3387170385</v>
       </c>
       <c r="D2" t="n">
         <v>819276.3387170383</v>
       </c>
       <c r="E2" t="n">
-        <v>263188.0021545207</v>
+        <v>256392.3241607625</v>
       </c>
       <c r="F2" t="n">
-        <v>320257.2625737982</v>
+        <v>321615.5310282761</v>
       </c>
       <c r="G2" t="n">
-        <v>342666.5849119593</v>
+        <v>344514.0166580146</v>
       </c>
       <c r="H2" t="n">
-        <v>454876.26326348</v>
+        <v>456314.9421220536</v>
       </c>
       <c r="I2" t="n">
-        <v>454876.2632634801</v>
+        <v>456314.9421220533</v>
       </c>
       <c r="J2" t="n">
-        <v>460262.040802434</v>
+        <v>462933.8729683559</v>
       </c>
       <c r="K2" t="n">
-        <v>620830.6871813046</v>
+        <v>620830.6871813047</v>
       </c>
       <c r="L2" t="n">
-        <v>620830.6871813047</v>
+        <v>620830.6871813049</v>
       </c>
       <c r="M2" t="n">
-        <v>567815.8579956059</v>
+        <v>573494.4382369654</v>
       </c>
       <c r="N2" t="n">
-        <v>567815.8579956058</v>
+        <v>567815.8579956057</v>
       </c>
       <c r="O2" t="n">
-        <v>518941.9362596472</v>
+        <v>517300.26330152</v>
       </c>
       <c r="P2" t="n">
         <v>215014.8110628928</v>
@@ -26372,25 +26372,25 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>19811.43418714828</v>
+        <v>16230.33393381052</v>
       </c>
       <c r="F3" t="n">
-        <v>18999.55222196496</v>
+        <v>22891.89735797803</v>
       </c>
       <c r="G3" t="n">
-        <v>10840.26438740054</v>
+        <v>11076.89177529195</v>
       </c>
       <c r="H3" t="n">
-        <v>54944.59228252815</v>
+        <v>54711.65651844187</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>9698.853512321442</v>
+        <v>10089.53475522038</v>
       </c>
       <c r="K3" t="n">
-        <v>70427.41380979307</v>
+        <v>70036.73256689412</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>403276.1226809025</v>
+        <v>404021.6580598142</v>
       </c>
       <c r="C4" t="n">
-        <v>403276.1226809025</v>
+        <v>404021.6580598142</v>
       </c>
       <c r="D4" t="n">
-        <v>403276.1226809025</v>
+        <v>404021.6580598142</v>
       </c>
       <c r="E4" t="n">
-        <v>79508.29058406604</v>
+        <v>78247.06721414017</v>
       </c>
       <c r="F4" t="n">
-        <v>112081.5454584158</v>
+        <v>113679.5680386284</v>
       </c>
       <c r="G4" t="n">
-        <v>119416.2656830988</v>
+        <v>121243.1790847783</v>
       </c>
       <c r="H4" t="n">
-        <v>161093.5106217925</v>
+        <v>163076.2548948502</v>
       </c>
       <c r="I4" t="n">
-        <v>161093.5106217925</v>
+        <v>163076.2548948501</v>
       </c>
       <c r="J4" t="n">
-        <v>164171.4843141034</v>
+        <v>166858.9761210411</v>
       </c>
       <c r="K4" t="n">
-        <v>255952.9205339231</v>
+        <v>257113.4593507872</v>
       </c>
       <c r="L4" t="n">
-        <v>255952.9205339231</v>
+        <v>257113.4593507872</v>
       </c>
       <c r="M4" t="n">
-        <v>231135.0599366332</v>
+        <v>233831.3037886866</v>
       </c>
       <c r="N4" t="n">
-        <v>231135.0599366332</v>
+        <v>232229.2964050156</v>
       </c>
       <c r="O4" t="n">
-        <v>208682.5943342687</v>
+        <v>208890.5039039288</v>
       </c>
       <c r="P4" t="n">
-        <v>58383.5376633838</v>
+        <v>59129.07304229552</v>
       </c>
     </row>
     <row r="5">
@@ -26476,22 +26476,22 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>3246.607811547475</v>
+        <v>2517.381628094789</v>
       </c>
       <c r="F5" t="n">
-        <v>5243.19950623294</v>
+        <v>5291.097270788125</v>
       </c>
       <c r="G5" t="n">
-        <v>7647.884457083781</v>
+        <v>7748.273037202742</v>
       </c>
       <c r="H5" t="n">
-        <v>18674.28038418752</v>
+        <v>18722.17814874271</v>
       </c>
       <c r="I5" t="n">
-        <v>18674.28038418752</v>
+        <v>18722.17814874271</v>
       </c>
       <c r="J5" t="n">
-        <v>18853.58843682915</v>
+        <v>18942.54142814592</v>
       </c>
       <c r="K5" t="n">
         <v>24257.94955661305</v>
@@ -26500,13 +26500,13 @@
         <v>24257.94955661305</v>
       </c>
       <c r="M5" t="n">
-        <v>20667.13800386032</v>
+        <v>21396.364187313</v>
       </c>
       <c r="N5" t="n">
         <v>20667.13800386032</v>
       </c>
       <c r="O5" t="n">
-        <v>17243.23690810029</v>
+        <v>17149.69086577492</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>382372.6160361362</v>
+        <v>381627.0806572241</v>
       </c>
       <c r="C6" t="n">
-        <v>382372.6160361358</v>
+        <v>381627.0806572243</v>
       </c>
       <c r="D6" t="n">
-        <v>382372.6160361358</v>
+        <v>381627.0806572241</v>
       </c>
       <c r="E6" t="n">
-        <v>160621.6695717589</v>
+        <v>159397.541384717</v>
       </c>
       <c r="F6" t="n">
-        <v>183932.9653871845</v>
+        <v>179752.9683608816</v>
       </c>
       <c r="G6" t="n">
-        <v>204762.1703843762</v>
+        <v>204445.6727607416</v>
       </c>
       <c r="H6" t="n">
-        <v>220163.8799749718</v>
+        <v>219804.8525600189</v>
       </c>
       <c r="I6" t="n">
-        <v>275108.4722575</v>
+        <v>274516.5090784605</v>
       </c>
       <c r="J6" t="n">
-        <v>267538.11453918</v>
+        <v>267042.8206639485</v>
       </c>
       <c r="K6" t="n">
-        <v>270192.4032809754</v>
+        <v>269422.5457070103</v>
       </c>
       <c r="L6" t="n">
-        <v>340619.8170907685</v>
+        <v>339459.2782739046</v>
       </c>
       <c r="M6" t="n">
-        <v>316013.6600551124</v>
+        <v>318266.7702609659</v>
       </c>
       <c r="N6" t="n">
-        <v>316013.6600551123</v>
+        <v>314919.4235867298</v>
       </c>
       <c r="O6" t="n">
-        <v>293016.1050172783</v>
+        <v>291260.0685318162</v>
       </c>
       <c r="P6" t="n">
-        <v>156631.273399509</v>
+        <v>155885.7380205973</v>
       </c>
     </row>
   </sheetData>
@@ -26695,25 +26695,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="F2" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="G2" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="H2" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="I2" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="J2" t="n">
-        <v>49.9580067928425</v>
+        <v>51.01610182569378</v>
       </c>
       <c r="K2" t="n">
         <v>114.2428337776276</v>
       </c>
       <c r="L2" t="n">
-        <v>114.2428337776276</v>
+        <v>114.2428337776277</v>
       </c>
       <c r="M2" t="n">
         <v>100.1578341526431</v>
@@ -26722,7 +26722,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="O2" t="n">
-        <v>88.03426726224133</v>
+        <v>87.54591570861767</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26796,13 +26796,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="F4" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="G4" t="n">
-        <v>79.13461628504521</v>
+        <v>79.99795206734417</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
@@ -26820,13 +26820,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="M4" t="n">
-        <v>201.4304119158185</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="N4" t="n">
         <v>201.4304119158185</v>
       </c>
       <c r="O4" t="n">
-        <v>161.8796725926138</v>
+        <v>161.0163368103148</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -26917,22 +26917,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="F2" t="n">
-        <v>23.74944027745619</v>
+        <v>24.31918375668379</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>14.0849996249845</v>
+        <v>14.08499962498452</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>12.1235668904018</v>
+        <v>12.61191844402547</v>
       </c>
       <c r="K2" t="n">
-        <v>88.03426726224133</v>
+        <v>87.54591570861766</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27018,16 +27018,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>11.99385170152445</v>
       </c>
       <c r="G4" t="n">
-        <v>39.55073932320462</v>
+        <v>40.41407510550358</v>
       </c>
       <c r="H4" t="n">
-        <v>161.8796725926138</v>
+        <v>161.0163368103149</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27154,22 +27154,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="K2" t="n">
-        <v>23.74944027745619</v>
+        <v>24.31918375668379</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>14.0849996249845</v>
+        <v>14.08499962498452</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>12.1235668904018</v>
+        <v>12.61191844402547</v>
       </c>
       <c r="P2" t="n">
-        <v>88.03426726224133</v>
+        <v>87.54591570861766</v>
       </c>
     </row>
     <row r="3">
@@ -27264,16 +27264,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>11.99385170152445</v>
       </c>
       <c r="O4" t="n">
-        <v>39.55073932320462</v>
+        <v>40.41407510550358</v>
       </c>
       <c r="P4" t="n">
-        <v>161.8796725926138</v>
+        <v>161.0163368103149</v>
       </c>
     </row>
   </sheetData>
@@ -28275,7 +28275,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="L13" t="n">
-        <v>8.133294491227517</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -28284,10 +28284,10 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>9.990699214544804</v>
+        <v>4.611589586016663</v>
       </c>
       <c r="Q13" t="n">
         <v>9.990699214544804</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="C14" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="D14" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="E14" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="F14" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="G14" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="H14" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="I14" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -28372,28 +28372,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="S14" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="T14" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="U14" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="V14" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="W14" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="X14" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="Y14" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
     </row>
     <row r="15">
@@ -28403,28 +28403,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="C15" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="D15" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="E15" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="F15" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="G15" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="H15" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="I15" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="S15" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="T15" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="U15" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="V15" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="W15" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="X15" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="Y15" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
     </row>
     <row r="16">
@@ -28482,37 +28482,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="C16" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="D16" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="E16" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="F16" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="G16" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="H16" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="I16" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="J16" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="K16" t="n">
-        <v>33.740139492001</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>11.99385170152445</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -28524,34 +28524,34 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>16.64404525419894</v>
+        <v>16.12084121879266</v>
       </c>
       <c r="Q16" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="R16" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="S16" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="T16" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="U16" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="V16" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="W16" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="X16" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="Y16" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="C17" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="D17" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="E17" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="F17" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="G17" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="H17" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="I17" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -28609,28 +28609,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="S17" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="T17" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="U17" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="V17" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="W17" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="X17" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="Y17" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
     </row>
     <row r="18">
@@ -28640,28 +28640,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="C18" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="D18" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="E18" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="F18" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="G18" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="H18" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="I18" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -28688,28 +28688,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="S18" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="T18" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="U18" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="V18" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="W18" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="X18" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="Y18" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
     </row>
     <row r="19">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="C19" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="D19" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="E19" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="F19" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="G19" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="H19" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="I19" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="J19" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="K19" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="L19" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="M19" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="N19" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="O19" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="P19" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="Q19" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="R19" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="S19" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="T19" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="U19" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="V19" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="W19" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="X19" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
       <c r="Y19" t="n">
-        <v>33.740139492001</v>
+        <v>34.3098829712286</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="C20" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="D20" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="E20" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="F20" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="G20" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="H20" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="I20" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -28846,28 +28846,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="S20" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="T20" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="U20" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="V20" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="W20" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="X20" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="Y20" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
     </row>
     <row r="21">
@@ -28877,28 +28877,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="C21" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="D21" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="E21" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="F21" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="G21" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="H21" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="I21" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -28925,28 +28925,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="S21" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="T21" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="U21" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="V21" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="W21" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="X21" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="Y21" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
     </row>
     <row r="22">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="C22" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="D22" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="E22" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="F22" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="G22" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="H22" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="I22" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="J22" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="K22" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="L22" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="M22" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="N22" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="O22" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="P22" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="Q22" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="R22" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="S22" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="T22" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="U22" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="V22" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="W22" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="X22" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="Y22" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="C23" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="D23" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="E23" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="F23" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="G23" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="H23" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="I23" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -29083,28 +29083,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="S23" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="T23" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="U23" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="V23" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="W23" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="X23" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="Y23" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
     </row>
     <row r="24">
@@ -29114,28 +29114,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="C24" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="D24" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="E24" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="F24" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="G24" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="H24" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="I24" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -29162,28 +29162,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="S24" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="T24" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="U24" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="V24" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="W24" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="X24" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="Y24" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
     </row>
     <row r="25">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="C25" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="D25" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="E25" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="F25" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="G25" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="H25" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="I25" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="J25" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="K25" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="L25" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="M25" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="N25" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="O25" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="P25" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="Q25" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="R25" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="S25" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="T25" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="U25" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="V25" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="W25" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="X25" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
       <c r="Y25" t="n">
-        <v>47.8251391169855</v>
+        <v>48.39488259621312</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>49.9580067928425</v>
+        <v>51.01610182569378</v>
       </c>
       <c r="C26" t="n">
-        <v>49.9580067928425</v>
+        <v>51.01610182569378</v>
       </c>
       <c r="D26" t="n">
-        <v>49.9580067928425</v>
+        <v>51.01610182569378</v>
       </c>
       <c r="E26" t="n">
-        <v>49.9580067928425</v>
+        <v>51.01610182569378</v>
       </c>
       <c r="F26" t="n">
-        <v>49.9580067928425</v>
+        <v>51.01610182569378</v>
       </c>
       <c r="G26" t="n">
-        <v>49.9580067928425</v>
+        <v>51.01610182569378</v>
       </c>
       <c r="H26" t="n">
-        <v>49.9580067928425</v>
+        <v>51.01610182569378</v>
       </c>
       <c r="I26" t="n">
-        <v>49.9580067928425</v>
+        <v>51.01610182569378</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -29320,28 +29320,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>49.9580067928425</v>
+        <v>51.01610182569378</v>
       </c>
       <c r="S26" t="n">
-        <v>49.9580067928425</v>
+        <v>51.01610182569378</v>
       </c>
       <c r="T26" t="n">
-        <v>49.9580067928425</v>
+        <v>51.01610182569378</v>
       </c>
       <c r="U26" t="n">
-        <v>49.9580067928425</v>
+        <v>51.01610182569378</v>
       </c>
       <c r="V26" t="n">
-        <v>49.9580067928425</v>
+        <v>51.01610182569378</v>
       </c>
       <c r="W26" t="n">
-        <v>49.9580067928425</v>
+        <v>51.01610182569378</v>
       </c>
       <c r="X26" t="n">
-        <v>49.9580067928425</v>
+        <v>51.01610182569378</v>
       </c>
       <c r="Y26" t="n">
-        <v>49.9580067928425</v>
+        <v>51.01610182569378</v>
       </c>
     </row>
     <row r="27">
@@ -29351,28 +29351,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>49.9580067928425</v>
+        <v>51.01610182569378</v>
       </c>
       <c r="C27" t="n">
-        <v>49.9580067928425</v>
+        <v>51.01610182569378</v>
       </c>
       <c r="D27" t="n">
-        <v>49.9580067928425</v>
+        <v>51.01610182569378</v>
       </c>
       <c r="E27" t="n">
-        <v>49.9580067928425</v>
+        <v>51.01610182569378</v>
       </c>
       <c r="F27" t="n">
-        <v>49.9580067928425</v>
+        <v>51.01610182569378</v>
       </c>
       <c r="G27" t="n">
-        <v>49.9580067928425</v>
+        <v>51.01610182569378</v>
       </c>
       <c r="H27" t="n">
-        <v>49.9580067928425</v>
+        <v>51.01610182569378</v>
       </c>
       <c r="I27" t="n">
-        <v>49.9580067928425</v>
+        <v>51.01610182569378</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -29399,28 +29399,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.9580067928425</v>
+        <v>51.01610182569378</v>
       </c>
       <c r="S27" t="n">
-        <v>49.9580067928425</v>
+        <v>51.01610182569378</v>
       </c>
       <c r="T27" t="n">
-        <v>49.9580067928425</v>
+        <v>51.01610182569378</v>
       </c>
       <c r="U27" t="n">
-        <v>49.9580067928425</v>
+        <v>51.01610182569378</v>
       </c>
       <c r="V27" t="n">
-        <v>49.9580067928425</v>
+        <v>51.01610182569378</v>
       </c>
       <c r="W27" t="n">
-        <v>49.9580067928425</v>
+        <v>51.01610182569378</v>
       </c>
       <c r="X27" t="n">
-        <v>49.9580067928425</v>
+        <v>51.01610182569378</v>
       </c>
       <c r="Y27" t="n">
-        <v>49.9580067928425</v>
+        <v>51.01610182569378</v>
       </c>
     </row>
     <row r="28">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>49.9580067928425</v>
+        <v>51.01610182569378</v>
       </c>
       <c r="C28" t="n">
-        <v>49.9580067928425</v>
+        <v>51.01610182569378</v>
       </c>
       <c r="D28" t="n">
-        <v>49.9580067928425</v>
+        <v>51.01610182569378</v>
       </c>
       <c r="E28" t="n">
-        <v>49.9580067928425</v>
+        <v>51.01610182569378</v>
       </c>
       <c r="F28" t="n">
-        <v>49.9580067928425</v>
+        <v>51.01610182569378</v>
       </c>
       <c r="G28" t="n">
-        <v>49.9580067928425</v>
+        <v>51.01610182569378</v>
       </c>
       <c r="H28" t="n">
-        <v>49.9580067928425</v>
+        <v>51.01610182569378</v>
       </c>
       <c r="I28" t="n">
-        <v>49.9580067928425</v>
+        <v>51.01610182569378</v>
       </c>
       <c r="J28" t="n">
-        <v>49.9580067928425</v>
+        <v>51.01610182569378</v>
       </c>
       <c r="K28" t="n">
-        <v>49.9580067928425</v>
+        <v>51.01610182569378</v>
       </c>
       <c r="L28" t="n">
-        <v>49.9580067928425</v>
+        <v>51.01610182569378</v>
       </c>
       <c r="M28" t="n">
-        <v>49.9580067928425</v>
+        <v>51.01610182569378</v>
       </c>
       <c r="N28" t="n">
-        <v>49.9580067928425</v>
+        <v>51.01610182569378</v>
       </c>
       <c r="O28" t="n">
-        <v>49.9580067928425</v>
+        <v>51.01610182569378</v>
       </c>
       <c r="P28" t="n">
-        <v>49.9580067928425</v>
+        <v>51.01610182569378</v>
       </c>
       <c r="Q28" t="n">
-        <v>49.9580067928425</v>
+        <v>51.01610182569378</v>
       </c>
       <c r="R28" t="n">
-        <v>49.9580067928425</v>
+        <v>51.01610182569378</v>
       </c>
       <c r="S28" t="n">
-        <v>49.9580067928425</v>
+        <v>51.01610182569378</v>
       </c>
       <c r="T28" t="n">
-        <v>49.9580067928425</v>
+        <v>51.01610182569378</v>
       </c>
       <c r="U28" t="n">
-        <v>49.9580067928425</v>
+        <v>51.01610182569378</v>
       </c>
       <c r="V28" t="n">
-        <v>49.9580067928425</v>
+        <v>51.01610182569378</v>
       </c>
       <c r="W28" t="n">
-        <v>49.9580067928425</v>
+        <v>51.01610182569378</v>
       </c>
       <c r="X28" t="n">
-        <v>49.9580067928425</v>
+        <v>51.01610182569378</v>
       </c>
       <c r="Y28" t="n">
-        <v>49.9580067928425</v>
+        <v>51.01610182569378</v>
       </c>
     </row>
     <row r="29">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>114.2428337776276</v>
+        <v>114.2428337776277</v>
       </c>
       <c r="C32" t="n">
-        <v>114.2428337776276</v>
+        <v>114.2428337776277</v>
       </c>
       <c r="D32" t="n">
-        <v>114.2428337776276</v>
+        <v>114.2428337776277</v>
       </c>
       <c r="E32" t="n">
-        <v>114.2428337776276</v>
+        <v>114.2428337776277</v>
       </c>
       <c r="F32" t="n">
-        <v>114.2428337776276</v>
+        <v>114.2428337776277</v>
       </c>
       <c r="G32" t="n">
-        <v>114.2428337776276</v>
+        <v>114.2428337776277</v>
       </c>
       <c r="H32" t="n">
-        <v>114.2428337776276</v>
+        <v>114.2428337776277</v>
       </c>
       <c r="I32" t="n">
-        <v>114.2428337776276</v>
+        <v>114.2428337776277</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -29794,28 +29794,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>114.2428337776276</v>
+        <v>114.2428337776277</v>
       </c>
       <c r="S32" t="n">
-        <v>114.2428337776276</v>
+        <v>114.2428337776277</v>
       </c>
       <c r="T32" t="n">
-        <v>114.2428337776276</v>
+        <v>114.2428337776277</v>
       </c>
       <c r="U32" t="n">
-        <v>114.2428337776276</v>
+        <v>114.2428337776277</v>
       </c>
       <c r="V32" t="n">
-        <v>114.2428337776276</v>
+        <v>114.2428337776277</v>
       </c>
       <c r="W32" t="n">
-        <v>114.2428337776276</v>
+        <v>114.2428337776277</v>
       </c>
       <c r="X32" t="n">
-        <v>114.2428337776276</v>
+        <v>114.2428337776277</v>
       </c>
       <c r="Y32" t="n">
-        <v>114.2428337776276</v>
+        <v>114.2428337776277</v>
       </c>
     </row>
     <row r="33">
@@ -29825,22 +29825,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>114.2428337776276</v>
+        <v>114.2428337776277</v>
       </c>
       <c r="C33" t="n">
-        <v>114.2428337776276</v>
+        <v>114.2428337776277</v>
       </c>
       <c r="D33" t="n">
-        <v>114.2428337776276</v>
+        <v>114.2428337776277</v>
       </c>
       <c r="E33" t="n">
-        <v>114.2428337776276</v>
+        <v>114.2428337776277</v>
       </c>
       <c r="F33" t="n">
-        <v>114.2428337776276</v>
+        <v>114.2428337776277</v>
       </c>
       <c r="G33" t="n">
-        <v>114.2428337776276</v>
+        <v>114.2428337776277</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -29876,25 +29876,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>114.2428337776276</v>
+        <v>114.2428337776277</v>
       </c>
       <c r="T33" t="n">
-        <v>114.2428337776276</v>
+        <v>114.2428337776277</v>
       </c>
       <c r="U33" t="n">
-        <v>114.2428337776276</v>
+        <v>114.2428337776277</v>
       </c>
       <c r="V33" t="n">
-        <v>114.2428337776276</v>
+        <v>114.2428337776277</v>
       </c>
       <c r="W33" t="n">
-        <v>114.2428337776276</v>
+        <v>114.2428337776277</v>
       </c>
       <c r="X33" t="n">
-        <v>114.2428337776276</v>
+        <v>114.2428337776277</v>
       </c>
       <c r="Y33" t="n">
-        <v>114.2428337776276</v>
+        <v>114.2428337776277</v>
       </c>
     </row>
     <row r="34">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>114.2428337776276</v>
+        <v>114.2428337776277</v>
       </c>
       <c r="C34" t="n">
-        <v>114.2428337776276</v>
+        <v>114.2428337776277</v>
       </c>
       <c r="D34" t="n">
-        <v>114.2428337776276</v>
+        <v>114.2428337776277</v>
       </c>
       <c r="E34" t="n">
-        <v>114.2428337776276</v>
+        <v>114.2428337776277</v>
       </c>
       <c r="F34" t="n">
-        <v>114.2428337776276</v>
+        <v>114.2428337776277</v>
       </c>
       <c r="G34" t="n">
-        <v>114.2428337776276</v>
+        <v>114.2428337776277</v>
       </c>
       <c r="H34" t="n">
-        <v>114.2428337776276</v>
+        <v>114.2428337776277</v>
       </c>
       <c r="I34" t="n">
-        <v>114.2428337776276</v>
+        <v>114.2428337776277</v>
       </c>
       <c r="J34" t="n">
-        <v>114.2428337776276</v>
+        <v>114.2428337776277</v>
       </c>
       <c r="K34" t="n">
-        <v>114.2428337776276</v>
+        <v>114.2428337776277</v>
       </c>
       <c r="L34" t="n">
-        <v>114.2428337776276</v>
+        <v>114.2428337776277</v>
       </c>
       <c r="M34" t="n">
-        <v>114.2428337776276</v>
+        <v>114.2428337776277</v>
       </c>
       <c r="N34" t="n">
-        <v>114.2428337776276</v>
+        <v>114.2428337776277</v>
       </c>
       <c r="O34" t="n">
-        <v>114.2428337776276</v>
+        <v>114.2428337776277</v>
       </c>
       <c r="P34" t="n">
-        <v>114.2428337776276</v>
+        <v>114.2428337776277</v>
       </c>
       <c r="Q34" t="n">
-        <v>114.2428337776276</v>
+        <v>114.2428337776277</v>
       </c>
       <c r="R34" t="n">
-        <v>114.2428337776276</v>
+        <v>114.2428337776277</v>
       </c>
       <c r="S34" t="n">
-        <v>114.2428337776276</v>
+        <v>114.2428337776277</v>
       </c>
       <c r="T34" t="n">
-        <v>114.2428337776276</v>
+        <v>114.2428337776277</v>
       </c>
       <c r="U34" t="n">
-        <v>114.2428337776276</v>
+        <v>114.2428337776277</v>
       </c>
       <c r="V34" t="n">
-        <v>114.2428337776276</v>
+        <v>114.2428337776277</v>
       </c>
       <c r="W34" t="n">
-        <v>114.2428337776276</v>
+        <v>114.2428337776277</v>
       </c>
       <c r="X34" t="n">
-        <v>114.2428337776276</v>
+        <v>114.2428337776277</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.2428337776276</v>
+        <v>114.2428337776277</v>
       </c>
     </row>
     <row r="35">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>88.03426726224133</v>
+        <v>87.54591570861767</v>
       </c>
       <c r="C41" t="n">
-        <v>88.03426726224133</v>
+        <v>87.54591570861767</v>
       </c>
       <c r="D41" t="n">
-        <v>88.03426726224133</v>
+        <v>87.54591570861767</v>
       </c>
       <c r="E41" t="n">
-        <v>88.03426726224133</v>
+        <v>87.54591570861767</v>
       </c>
       <c r="F41" t="n">
-        <v>88.03426726224133</v>
+        <v>87.54591570861767</v>
       </c>
       <c r="G41" t="n">
-        <v>88.03426726224133</v>
+        <v>87.54591570861767</v>
       </c>
       <c r="H41" t="n">
-        <v>88.03426726224133</v>
+        <v>87.54591570861767</v>
       </c>
       <c r="I41" t="n">
-        <v>88.03426726224133</v>
+        <v>87.54591570861767</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -30505,28 +30505,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>88.03426726224133</v>
+        <v>87.54591570861767</v>
       </c>
       <c r="S41" t="n">
-        <v>88.03426726224133</v>
+        <v>87.54591570861767</v>
       </c>
       <c r="T41" t="n">
-        <v>88.03426726224133</v>
+        <v>87.54591570861767</v>
       </c>
       <c r="U41" t="n">
-        <v>88.03426726224133</v>
+        <v>87.54591570861767</v>
       </c>
       <c r="V41" t="n">
-        <v>88.03426726224133</v>
+        <v>87.54591570861767</v>
       </c>
       <c r="W41" t="n">
-        <v>88.03426726224133</v>
+        <v>87.54591570861767</v>
       </c>
       <c r="X41" t="n">
-        <v>88.03426726224133</v>
+        <v>87.54591570861767</v>
       </c>
       <c r="Y41" t="n">
-        <v>88.03426726224133</v>
+        <v>87.54591570861767</v>
       </c>
     </row>
     <row r="42">
@@ -30536,28 +30536,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>88.03426726224133</v>
+        <v>87.54591570861767</v>
       </c>
       <c r="C42" t="n">
-        <v>88.03426726224133</v>
+        <v>87.54591570861767</v>
       </c>
       <c r="D42" t="n">
-        <v>88.03426726224133</v>
+        <v>87.54591570861767</v>
       </c>
       <c r="E42" t="n">
-        <v>88.03426726224133</v>
+        <v>87.54591570861767</v>
       </c>
       <c r="F42" t="n">
-        <v>88.03426726224133</v>
+        <v>87.54591570861767</v>
       </c>
       <c r="G42" t="n">
-        <v>88.03426726224133</v>
+        <v>87.54591570861767</v>
       </c>
       <c r="H42" t="n">
-        <v>88.03426726224133</v>
+        <v>87.54591570861767</v>
       </c>
       <c r="I42" t="n">
-        <v>88.03426726224133</v>
+        <v>87.54591570861767</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -30584,28 +30584,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>88.03426726224133</v>
+        <v>87.54591570861767</v>
       </c>
       <c r="S42" t="n">
-        <v>88.03426726224133</v>
+        <v>87.54591570861767</v>
       </c>
       <c r="T42" t="n">
-        <v>88.03426726224133</v>
+        <v>87.54591570861767</v>
       </c>
       <c r="U42" t="n">
-        <v>88.03426726224133</v>
+        <v>87.54591570861767</v>
       </c>
       <c r="V42" t="n">
-        <v>88.03426726224133</v>
+        <v>87.54591570861767</v>
       </c>
       <c r="W42" t="n">
-        <v>88.03426726224133</v>
+        <v>87.54591570861767</v>
       </c>
       <c r="X42" t="n">
-        <v>88.03426726224133</v>
+        <v>87.54591570861767</v>
       </c>
       <c r="Y42" t="n">
-        <v>88.03426726224133</v>
+        <v>87.54591570861767</v>
       </c>
     </row>
     <row r="43">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>88.03426726224133</v>
+        <v>87.54591570861767</v>
       </c>
       <c r="C43" t="n">
-        <v>88.03426726224133</v>
+        <v>87.54591570861767</v>
       </c>
       <c r="D43" t="n">
-        <v>88.03426726224133</v>
+        <v>87.54591570861767</v>
       </c>
       <c r="E43" t="n">
-        <v>88.03426726224133</v>
+        <v>87.54591570861767</v>
       </c>
       <c r="F43" t="n">
-        <v>88.03426726224133</v>
+        <v>87.54591570861767</v>
       </c>
       <c r="G43" t="n">
-        <v>88.03426726224133</v>
+        <v>87.54591570861767</v>
       </c>
       <c r="H43" t="n">
-        <v>88.03426726224133</v>
+        <v>87.54591570861767</v>
       </c>
       <c r="I43" t="n">
-        <v>88.03426726224133</v>
+        <v>87.54591570861767</v>
       </c>
       <c r="J43" t="n">
-        <v>88.03426726224133</v>
+        <v>87.54591570861767</v>
       </c>
       <c r="K43" t="n">
-        <v>88.03426726224133</v>
+        <v>87.54591570861767</v>
       </c>
       <c r="L43" t="n">
-        <v>88.03426726224133</v>
+        <v>87.54591570861767</v>
       </c>
       <c r="M43" t="n">
-        <v>88.03426726224133</v>
+        <v>87.54591570861767</v>
       </c>
       <c r="N43" t="n">
-        <v>88.03426726224133</v>
+        <v>87.54591570861767</v>
       </c>
       <c r="O43" t="n">
-        <v>88.03426726224133</v>
+        <v>87.54591570861767</v>
       </c>
       <c r="P43" t="n">
-        <v>88.03426726224133</v>
+        <v>87.54591570861767</v>
       </c>
       <c r="Q43" t="n">
-        <v>88.03426726224133</v>
+        <v>87.54591570861767</v>
       </c>
       <c r="R43" t="n">
-        <v>88.03426726224133</v>
+        <v>87.54591570861767</v>
       </c>
       <c r="S43" t="n">
-        <v>88.03426726224133</v>
+        <v>87.54591570861767</v>
       </c>
       <c r="T43" t="n">
-        <v>88.03426726224133</v>
+        <v>87.54591570861767</v>
       </c>
       <c r="U43" t="n">
-        <v>88.03426726224133</v>
+        <v>87.54591570861767</v>
       </c>
       <c r="V43" t="n">
-        <v>88.03426726224133</v>
+        <v>87.54591570861767</v>
       </c>
       <c r="W43" t="n">
-        <v>88.03426726224133</v>
+        <v>87.54591570861767</v>
       </c>
       <c r="X43" t="n">
-        <v>88.03426726224133</v>
+        <v>87.54591570861767</v>
       </c>
       <c r="Y43" t="n">
-        <v>88.03426726224133</v>
+        <v>87.54591570861767</v>
       </c>
     </row>
     <row r="44">
@@ -35410,19 +35410,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>37.98452839772582</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="O11" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>37.98452839772582</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M12" t="n">
-        <v>39.58387696184059</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35571,19 +35571,19 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>35.72331975154365</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M13" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N13" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O13" t="n">
-        <v>34.57582712858448</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P13" t="n">
-        <v>7.269258479438292</v>
+        <v>1.890148850910151</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35647,22 +35647,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>37.98452839772582</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L14" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
       <c r="P14" t="n">
-        <v>39.58387696184059</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
         <v>37.98452839772582</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>39.58387696184059</v>
       </c>
       <c r="N15" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,10 +35805,10 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>11.47064766611815</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M16" t="n">
         <v>39.58387696184059</v>
@@ -35820,7 +35820,7 @@
         <v>24.58512791403967</v>
       </c>
       <c r="P16" t="n">
-        <v>13.92260451909243</v>
+        <v>13.39940048368615</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35884,22 +35884,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>79.13461628504521</v>
+        <v>79.99795206734417</v>
       </c>
       <c r="L17" t="n">
-        <v>79.13461628504521</v>
+        <v>79.99795206734417</v>
       </c>
       <c r="M17" t="n">
-        <v>75.93725805130603</v>
+        <v>76.76571157977473</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>79.99795206734417</v>
       </c>
       <c r="P17" t="n">
-        <v>79.13461628504521</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35966,22 +35966,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>5.84174440147847</v>
+        <v>79.99795206734417</v>
       </c>
       <c r="M18" t="n">
-        <v>79.13461628504521</v>
+        <v>76.76571157977476</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>79.99795206734417</v>
       </c>
       <c r="O18" t="n">
-        <v>79.13461628504521</v>
+        <v>79.99795206734417</v>
       </c>
       <c r="P18" t="n">
-        <v>79.13461628504521</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>11.47064766611815</v>
+        <v>12.04039114534574</v>
       </c>
       <c r="L19" t="n">
-        <v>61.33016475231714</v>
+        <v>61.89990823154474</v>
       </c>
       <c r="M19" t="n">
-        <v>73.32401645384158</v>
+        <v>73.89375993306919</v>
       </c>
       <c r="N19" t="n">
-        <v>77.87231187122958</v>
+        <v>78.4420553504572</v>
       </c>
       <c r="O19" t="n">
-        <v>58.32526740604067</v>
+        <v>58.89501088526827</v>
       </c>
       <c r="P19" t="n">
-        <v>31.01869875689449</v>
+        <v>31.58844223612208</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36203,7 +36203,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>46.78797658628819</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
@@ -36215,7 +36215,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>25.55564729110265</v>
+        <v>26.12539077033026</v>
       </c>
       <c r="L22" t="n">
-        <v>75.41516437730164</v>
+        <v>75.98490785652925</v>
       </c>
       <c r="M22" t="n">
-        <v>87.40901607882608</v>
+        <v>87.9787595580537</v>
       </c>
       <c r="N22" t="n">
-        <v>91.95731149621409</v>
+        <v>92.5270549754417</v>
       </c>
       <c r="O22" t="n">
-        <v>72.41026703102517</v>
+        <v>72.98001051025278</v>
       </c>
       <c r="P22" t="n">
-        <v>45.10369838187899</v>
+        <v>45.6734418611066</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36440,22 +36440,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,22 +36516,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>25.55564729110265</v>
+        <v>26.12539077033026</v>
       </c>
       <c r="L25" t="n">
-        <v>75.41516437730164</v>
+        <v>75.98490785652925</v>
       </c>
       <c r="M25" t="n">
-        <v>87.40901607882608</v>
+        <v>87.9787595580537</v>
       </c>
       <c r="N25" t="n">
-        <v>91.95731149621409</v>
+        <v>92.5270549754417</v>
       </c>
       <c r="O25" t="n">
-        <v>72.41026703102517</v>
+        <v>72.98001051025278</v>
       </c>
       <c r="P25" t="n">
-        <v>45.10369838187899</v>
+        <v>45.6734418611066</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M26" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N26" t="n">
         <v>207.9338608153932</v>
@@ -36677,7 +36677,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>104.6525397736754</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
@@ -36686,10 +36686,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36753,22 +36753,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>27.68851496695965</v>
+        <v>28.74660999981093</v>
       </c>
       <c r="L28" t="n">
-        <v>77.54803205315864</v>
+        <v>78.60612708600992</v>
       </c>
       <c r="M28" t="n">
-        <v>89.54188375468308</v>
+        <v>90.59997878753437</v>
       </c>
       <c r="N28" t="n">
-        <v>94.09017917207109</v>
+        <v>95.14827420492237</v>
       </c>
       <c r="O28" t="n">
-        <v>74.54313470688217</v>
+        <v>75.60122973973345</v>
       </c>
       <c r="P28" t="n">
-        <v>47.23656605773599</v>
+        <v>48.29466109058727</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36914,10 +36914,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>34.55702612384782</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
@@ -36926,10 +36926,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37151,13 +37151,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37166,7 +37166,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>20.88365366095486</v>
+        <v>20.88365366095488</v>
       </c>
       <c r="K34" t="n">
-        <v>91.97334195174479</v>
+        <v>91.9733419517448</v>
       </c>
       <c r="L34" t="n">
         <v>141.8328590379438</v>
@@ -37245,7 +37245,7 @@
         <v>111.5213930425211</v>
       </c>
       <c r="Q34" t="n">
-        <v>28.08079052593325</v>
+        <v>28.08079052593327</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,13 +37312,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>68.93458988188699</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="N35" t="n">
-        <v>201.4304119158185</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O35" t="n">
-        <v>150.7019698410586</v>
+        <v>47.19965394337734</v>
       </c>
       <c r="P35" t="n">
         <v>90.5657124162131</v>
@@ -37388,22 +37388,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="M36" t="n">
-        <v>13.5145484163335</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="N36" t="n">
-        <v>201.4304119158185</v>
+        <v>78.17726300872559</v>
       </c>
       <c r="O36" t="n">
-        <v>201.4304119158185</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37552,10 +37552,10 @@
         <v>201.4304119158185</v>
       </c>
       <c r="N38" t="n">
-        <v>68.93458988188699</v>
+        <v>201.4304119158185</v>
       </c>
       <c r="O38" t="n">
-        <v>150.7019698410586</v>
+        <v>18.20614780712715</v>
       </c>
       <c r="P38" t="n">
         <v>90.5657124162131</v>
@@ -37625,10 +37625,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>83.61006206616123</v>
       </c>
       <c r="M39" t="n">
-        <v>13.5145484163335</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>201.4304119158185</v>
@@ -37640,7 +37640,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37783,16 +37783,16 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>161.8796725926138</v>
+        <v>161.0163368103148</v>
       </c>
       <c r="M41" t="n">
-        <v>133.7751811623608</v>
+        <v>161.0163368103148</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>120.9056891000378</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410586</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37859,22 +37859,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>161.8796725926138</v>
+        <v>161.0163368103148</v>
       </c>
       <c r="M42" t="n">
-        <v>161.8796725926138</v>
+        <v>161.0163368103148</v>
       </c>
       <c r="N42" t="n">
-        <v>161.8796725926138</v>
+        <v>161.0163368103148</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>154.5106262321203</v>
       </c>
       <c r="P42" t="n">
-        <v>28.71528172236944</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>65.76477543635848</v>
+        <v>65.27642388273482</v>
       </c>
       <c r="L43" t="n">
-        <v>115.6242925225575</v>
+        <v>115.1359409689338</v>
       </c>
       <c r="M43" t="n">
-        <v>127.6181442240819</v>
+        <v>127.1297926704583</v>
       </c>
       <c r="N43" t="n">
-        <v>132.1664396414699</v>
+        <v>131.6780880878463</v>
       </c>
       <c r="O43" t="n">
-        <v>112.619395176281</v>
+        <v>112.1310436226573</v>
       </c>
       <c r="P43" t="n">
-        <v>85.31282652713482</v>
+        <v>84.82447497351116</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.872224010546944</v>
+        <v>1.383872456923285</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
